--- a/results/results-vitto2.xlsx
+++ b/results/results-vitto2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vittorio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36049BF-D70C-42AE-99BB-5478B576764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33550A81-DE0B-49D3-A6E4-01ABA7EF9223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Accuracy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
   <si>
     <t>epochs</t>
   </si>
@@ -237,16 +238,10 @@
     <t>f1-mean(27)</t>
   </si>
   <si>
-    <t>accuracy(27)</t>
-  </si>
-  <si>
     <t>f-auc(26)</t>
   </si>
   <si>
     <t>f1-mean(26)</t>
-  </si>
-  <si>
-    <t>accuracy(26)</t>
   </si>
   <si>
     <t>f-auc(26_2)</t>
@@ -255,16 +250,10 @@
     <t>f1-mean(26_2)</t>
   </si>
   <si>
-    <t>accuracy(26_2)</t>
-  </si>
-  <si>
     <t>f-auc(26_3)</t>
   </si>
   <si>
     <t>f1-mean(26_3)</t>
-  </si>
-  <si>
-    <t>accuracy(26_3)</t>
   </si>
   <si>
     <t>f-auc(28)</t>
@@ -273,16 +262,10 @@
     <t>f1-mean(28)</t>
   </si>
   <si>
-    <t>accuracy(28)</t>
-  </si>
-  <si>
     <t>f-auc(28_2)</t>
   </si>
   <si>
     <t>f1-mean(28_2)</t>
-  </si>
-  <si>
-    <t>accuracy(28_2)</t>
   </si>
   <si>
     <t>f-auc(28_3)</t>
@@ -291,16 +274,10 @@
     <t>f1-mean(28_3)</t>
   </si>
   <si>
-    <t>accuracy(28_3)</t>
-  </si>
-  <si>
     <t>f-auc(28_4)</t>
   </si>
   <si>
     <t>f1-mean(28_4)</t>
-  </si>
-  <si>
-    <t>accuracy(28_4)</t>
   </si>
   <si>
     <t>f-auc(28_5)</t>
@@ -309,16 +286,10 @@
     <t>f1-mean(28_5)</t>
   </si>
   <si>
-    <t>accuracy(28_5)</t>
-  </si>
-  <si>
     <t>f-auc(28_6)</t>
   </si>
   <si>
     <t>f1-mean(28_6)</t>
-  </si>
-  <si>
-    <t>accuracy(28_6)</t>
   </si>
   <si>
     <t>28_2 = 22</t>
@@ -331,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,8 +374,81 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,8 +539,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -519,11 +605,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -579,9 +699,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="20">
+    <cellStyle name="Accent" xfId="8" xr:uid="{E299F07A-93FA-4915-870D-4F5F1D61303D}"/>
+    <cellStyle name="Accent 1" xfId="9" xr:uid="{50C22ED1-27D3-4D94-8CDD-5CD4D8542C0A}"/>
+    <cellStyle name="Accent 2" xfId="10" xr:uid="{D801E6BF-6B60-4D20-AC2C-9428735AA275}"/>
+    <cellStyle name="Accent 3" xfId="11" xr:uid="{72B4B3D1-1616-4FE0-8AAA-97FAEE09AE5D}"/>
+    <cellStyle name="Bad 2" xfId="5" xr:uid="{64209F71-7DE4-4C56-9DEA-C1CC5A7EE44E}"/>
+    <cellStyle name="Error" xfId="12" xr:uid="{546C6A74-17C3-4EF9-BFA7-90646929020F}"/>
+    <cellStyle name="Footnote" xfId="13" xr:uid="{AFC42103-20DB-4C74-8ED1-FE589F3068FA}"/>
+    <cellStyle name="Good 2" xfId="4" xr:uid="{19258B64-6F1D-4316-89C9-C796FB6BFE18}"/>
+    <cellStyle name="Heading" xfId="14" xr:uid="{5655B5E3-88CE-4DC3-93B9-3B4714E49AE6}"/>
+    <cellStyle name="Heading 1 2" xfId="2" xr:uid="{B7EE03D9-DAAF-4F26-A87F-5CE4A50EF095}"/>
+    <cellStyle name="Heading 2 2" xfId="3" xr:uid="{A72601A8-D02E-4E98-B460-FD1F34DDD489}"/>
+    <cellStyle name="Hyperlink" xfId="15" xr:uid="{213D5201-9C65-4058-8409-FE94F0DDEEEB}"/>
+    <cellStyle name="Neutral 2" xfId="6" xr:uid="{FC0F4F10-27C6-42C7-A064-7B860404E473}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D2F8EB8C-1AE3-46A8-92EB-5AA8B37F853C}"/>
+    <cellStyle name="Note 2" xfId="7" xr:uid="{5ACFAC42-6869-40CA-9AB9-69CF4E684371}"/>
+    <cellStyle name="Result" xfId="16" xr:uid="{FFF74A6E-673E-46F7-9514-4D38EB82BB00}"/>
+    <cellStyle name="Status" xfId="17" xr:uid="{4968C24C-A3D5-4EA5-918C-3AE5CBBC3A8D}"/>
+    <cellStyle name="Text" xfId="18" xr:uid="{E9BE6AD8-8659-40BC-9A6E-6E01C30A235B}"/>
+    <cellStyle name="Warning" xfId="19" xr:uid="{19B2C7A2-1D6B-4BF4-A128-43FC07725D71}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4599,6 +4744,3082 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>f-AUC (26_x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40085925286289648"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(26_2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$G$64:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.68933999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70123000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73304999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73677000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76153000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76351999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76932999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76915999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77212999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77578000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77354999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77403999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77946000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78088000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78288000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77915000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78386999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78542000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78354999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78396999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78051999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77444999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77827999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78183999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77825999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.78047</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77617000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77105000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77983999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77234000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77383999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77222000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77073000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8C4-4144-84E3-E3CBA0F6A957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$I$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(26_3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$I$64:$I$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.67103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70025000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72743000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73604000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75212000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75510999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76041000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75758000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76336000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76619000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77183000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77841000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77349000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77315999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77020999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77864999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77371000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77198999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77222000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77295000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76614000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77354999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76961000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77692000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77863000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77368999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76378000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76548000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77222999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76026000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76293999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8C4-4144-84E3-E3CBA0F6A957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(26)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$E$64:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.67023900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71850099999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73923399999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74585000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75602100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76059600000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76941199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76973000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77389200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77310199999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77520500000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77563700000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77069399999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77692099999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77354500000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77723500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77837500000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78245399999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.783196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78592300000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77511300000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78188199999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78325299999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.778783</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78010699999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.780308</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.779331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77937000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77863199999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77344299999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77441599999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76888800000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77255600000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.77544500000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77001900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.770374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.769598</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76717500000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77098800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8C4-4144-84E3-E3CBA0F6A957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213703679"/>
+        <c:axId val="213700767"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>epochs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-B8C4-4144-84E3-E3CBA0F6A957}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213703679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213700767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213700767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.69000000000000017"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213703679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>F1-Mean (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>26_x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40085925286289648"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(26_2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$B$65:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$H$64:$H$103</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$H$65:$H$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.62002000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64914000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65573000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67029000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65073000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67427000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66039000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68384999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68205000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67884999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63304000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69098000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67288000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.63929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67437999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65456000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69072999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65105000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68925999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69113999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68749000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67447000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68376000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67959000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68264000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67473000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67142999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68001999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68618000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68462999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BA58-45C1-9449-9CFF1428C930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$J$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(26_3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$B$65:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$J$64:$J$103</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$J$65:$J$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.60931000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61982999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64864999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63185000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67139000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65991999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59097999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65590000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65935999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65712999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66634000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63366999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68193000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68062999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66537999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.64905000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.64700999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69096999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68442999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.69711999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.69155</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69145999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67052</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66703999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66669</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66137000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68601999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68925999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68866000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69033999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67339000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BA58-45C1-9449-9CFF1428C930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$F$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(26)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$B$65:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Foglio1!$F$64:$F$103</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Foglio1!$F$65:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.64052200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64415800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62593799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.660941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67377500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66031300000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66410899999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66380700000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67780799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67246799999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66564500000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67632099999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67145900000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64006399999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="[$-409]General">
+                  <c:v>0.67882900000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65906299999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66993499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.69361099999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68845599999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.68511</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68741399999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69441600000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64140299999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67810499999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.682342</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68627800000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66360399999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67906599999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67363099999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68294999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65550600000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68169400000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.681253</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68820400000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.67983000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.67453300000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68227700000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68118199999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67877100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BA58-45C1-9449-9CFF1428C930}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213703679"/>
+        <c:axId val="213700767"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>epochs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$65:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="39"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$65:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="39"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-BA58-45C1-9449-9CFF1428C930}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213703679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213700767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213700767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.72000000000000008"/>
+          <c:min val="0.59000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213703679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4680,6 +7901,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6267,6 +9568,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6372,6 +10679,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>559995</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1020535</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA41C45-9B62-AAF3-E14D-C29BEE64575E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>433327</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>26719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21250257-6012-491B-A928-CB3CFE7A0CB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6643,10 +11024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF103"/>
+  <dimension ref="B2:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6676,6 +11057,12 @@
     <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23">
@@ -8189,47 +12576,47 @@
       <c r="Y33" s="32"/>
       <c r="Z33" s="32"/>
     </row>
-    <row r="53" spans="2:32">
+    <row r="53" spans="2:27">
       <c r="C53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="2:32">
+    <row r="54" spans="2:27">
       <c r="C54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:32">
+    <row r="55" spans="2:27">
       <c r="C55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="2:32">
+    <row r="56" spans="2:27">
       <c r="C56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:32">
+    <row r="57" spans="2:27">
       <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:32">
+    <row r="58" spans="2:27">
       <c r="C58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:32">
+    <row r="61" spans="2:27">
       <c r="C61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="2:32">
-      <c r="R62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="2:32">
+    <row r="62" spans="2:27">
+      <c r="N62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27">
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
@@ -8263,10 +12650,10 @@
       <c r="L63" t="s">
         <v>72</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="38" t="s">
         <v>74</v>
       </c>
       <c r="O63" t="s">
@@ -8278,13 +12665,13 @@
       <c r="Q63" t="s">
         <v>77</v>
       </c>
-      <c r="R63" s="38" t="s">
+      <c r="R63" t="s">
         <v>78</v>
       </c>
-      <c r="S63" s="38" t="s">
+      <c r="S63" t="s">
         <v>79</v>
       </c>
-      <c r="T63" s="38" t="s">
+      <c r="T63" t="s">
         <v>80</v>
       </c>
       <c r="U63" t="s">
@@ -8293,38 +12680,8 @@
       <c r="V63" t="s">
         <v>82</v>
       </c>
-      <c r="W63" t="s">
-        <v>83</v>
-      </c>
-      <c r="X63" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="2:32">
+    </row>
+    <row r="64" spans="2:27">
       <c r="B64" s="1">
         <v>10</v>
       </c>
@@ -8334,8 +12691,29 @@
       <c r="D64">
         <v>0.51073000000000002</v>
       </c>
-      <c r="E64">
-        <v>0.57294</v>
+      <c r="E64" s="39">
+        <v>0.67023900000000003</v>
+      </c>
+      <c r="F64" s="39">
+        <v>0.593275</v>
+      </c>
+      <c r="G64">
+        <v>0.68933999999999995</v>
+      </c>
+      <c r="H64">
+        <v>0.50436000000000003</v>
+      </c>
+      <c r="I64">
+        <v>0.67103000000000002</v>
+      </c>
+      <c r="J64">
+        <v>0.59306000000000003</v>
+      </c>
+      <c r="K64">
+        <v>0.60707999999999995</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
       </c>
       <c r="AA64" s="1"/>
     </row>
@@ -8349,8 +12727,29 @@
       <c r="D65">
         <v>0.51053000000000004</v>
       </c>
-      <c r="E65">
-        <v>0.65683999999999998</v>
+      <c r="E65" s="39">
+        <v>0.71850099999999995</v>
+      </c>
+      <c r="F65" s="39">
+        <v>0.64052200000000004</v>
+      </c>
+      <c r="G65">
+        <v>0.70123000000000002</v>
+      </c>
+      <c r="H65">
+        <v>0.62002000000000002</v>
+      </c>
+      <c r="I65">
+        <v>0.70025000000000004</v>
+      </c>
+      <c r="J65">
+        <v>0.60931000000000002</v>
+      </c>
+      <c r="K65">
+        <v>0.62882000000000005</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
       </c>
       <c r="AA65" s="1"/>
     </row>
@@ -8364,8 +12763,29 @@
       <c r="D66">
         <v>0.57901999999999998</v>
       </c>
-      <c r="E66">
-        <v>0.58182999999999996</v>
+      <c r="E66" s="39">
+        <v>0.73923399999999995</v>
+      </c>
+      <c r="F66" s="39">
+        <v>0.64415800000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.73304999999999998</v>
+      </c>
+      <c r="H66">
+        <v>0.63444</v>
+      </c>
+      <c r="I66">
+        <v>0.72743000000000002</v>
+      </c>
+      <c r="J66">
+        <v>0.61982999999999999</v>
+      </c>
+      <c r="K66">
+        <v>0.63605</v>
+      </c>
+      <c r="L66">
+        <v>0.18761</v>
       </c>
       <c r="AA66" s="1"/>
     </row>
@@ -8379,8 +12799,29 @@
       <c r="D67">
         <v>0.63804000000000005</v>
       </c>
-      <c r="E67">
-        <v>0.69181999999999999</v>
+      <c r="E67" s="39">
+        <v>0.74585000000000001</v>
+      </c>
+      <c r="F67" s="39">
+        <v>0.62593799999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.73677000000000004</v>
+      </c>
+      <c r="H67">
+        <v>0.64914000000000005</v>
+      </c>
+      <c r="I67">
+        <v>0.73604000000000003</v>
+      </c>
+      <c r="J67">
+        <v>0.64864999999999995</v>
+      </c>
+      <c r="K67">
+        <v>0.66627999999999998</v>
+      </c>
+      <c r="L67">
+        <v>0.41243000000000002</v>
       </c>
       <c r="AA67" s="1"/>
     </row>
@@ -8394,8 +12835,29 @@
       <c r="D68">
         <v>0.65476999999999996</v>
       </c>
-      <c r="E68">
-        <v>0.69791999999999998</v>
+      <c r="E68" s="39">
+        <v>0.75602100000000005</v>
+      </c>
+      <c r="F68" s="39">
+        <v>0.660941</v>
+      </c>
+      <c r="G68">
+        <v>0.74351</v>
+      </c>
+      <c r="H68">
+        <v>0.65573000000000004</v>
+      </c>
+      <c r="I68">
+        <v>0.75144</v>
+      </c>
+      <c r="J68">
+        <v>0.63185000000000002</v>
+      </c>
+      <c r="K68">
+        <v>0.67849000000000004</v>
+      </c>
+      <c r="L68">
+        <v>0.60052000000000005</v>
       </c>
       <c r="AA68" s="1"/>
     </row>
@@ -8409,8 +12871,29 @@
       <c r="D69">
         <v>0.57850000000000001</v>
       </c>
-      <c r="E69">
-        <v>0.57862999999999998</v>
+      <c r="E69" s="39">
+        <v>0.76059600000000005</v>
+      </c>
+      <c r="F69" s="39">
+        <v>0.67377500000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.75366</v>
+      </c>
+      <c r="H69">
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.75212000000000001</v>
+      </c>
+      <c r="J69">
+        <v>0.67139000000000004</v>
+      </c>
+      <c r="K69">
+        <v>0.68391999999999997</v>
+      </c>
+      <c r="L69">
+        <v>0.60514999999999997</v>
       </c>
       <c r="AA69" s="1"/>
     </row>
@@ -8424,8 +12907,29 @@
       <c r="D70">
         <v>0.65568000000000004</v>
       </c>
-      <c r="E70">
-        <v>0.67110000000000003</v>
+      <c r="E70" s="39">
+        <v>0.76941199999999998</v>
+      </c>
+      <c r="F70" s="39">
+        <v>0.66031300000000004</v>
+      </c>
+      <c r="G70">
+        <v>0.76153000000000004</v>
+      </c>
+      <c r="H70">
+        <v>0.67029000000000005</v>
+      </c>
+      <c r="I70">
+        <v>0.75510999999999995</v>
+      </c>
+      <c r="J70">
+        <v>0.66535</v>
+      </c>
+      <c r="K70">
+        <v>0.69249000000000005</v>
+      </c>
+      <c r="L70">
+        <v>0.61375000000000002</v>
       </c>
       <c r="AA70" s="1"/>
     </row>
@@ -8439,8 +12943,29 @@
       <c r="D71">
         <v>0.63954</v>
       </c>
-      <c r="E71">
-        <v>0.64534000000000002</v>
+      <c r="E71" s="39">
+        <v>0.76973000000000003</v>
+      </c>
+      <c r="F71" s="39">
+        <v>0.66410899999999995</v>
+      </c>
+      <c r="G71">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="H71">
+        <v>0.65073000000000003</v>
+      </c>
+      <c r="I71">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="J71">
+        <v>0.65991999999999995</v>
+      </c>
+      <c r="K71">
+        <v>0.70293000000000005</v>
+      </c>
+      <c r="L71">
+        <v>0.61756999999999995</v>
       </c>
       <c r="AA71" s="1"/>
     </row>
@@ -8454,8 +12979,29 @@
       <c r="D72">
         <v>0.62390999999999996</v>
       </c>
-      <c r="E72">
-        <v>0.62634000000000001</v>
+      <c r="E72" s="39">
+        <v>0.77389200000000002</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0.66380700000000004</v>
+      </c>
+      <c r="G72">
+        <v>0.76351999999999998</v>
+      </c>
+      <c r="H72">
+        <v>0.67427000000000004</v>
+      </c>
+      <c r="I72">
+        <v>0.76041000000000003</v>
+      </c>
+      <c r="J72">
+        <v>0.59097999999999995</v>
+      </c>
+      <c r="K72">
+        <v>0.70977999999999997</v>
+      </c>
+      <c r="L72">
+        <v>0.63448000000000004</v>
       </c>
       <c r="AA72" s="1"/>
     </row>
@@ -8469,8 +13015,29 @@
       <c r="D73">
         <v>0.67674000000000001</v>
       </c>
-      <c r="E73">
-        <v>0.71921000000000002</v>
+      <c r="E73" s="39">
+        <v>0.77310199999999996</v>
+      </c>
+      <c r="F73" s="39">
+        <v>0.67780799999999997</v>
+      </c>
+      <c r="G73">
+        <v>0.76932999999999996</v>
+      </c>
+      <c r="H73">
+        <v>0.66039000000000003</v>
+      </c>
+      <c r="I73">
+        <v>0.75758000000000003</v>
+      </c>
+      <c r="J73">
+        <v>0.67762</v>
+      </c>
+      <c r="K73">
+        <v>0.72206999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0.61958999999999997</v>
       </c>
       <c r="AA73" s="1"/>
     </row>
@@ -8484,8 +13051,29 @@
       <c r="D74">
         <v>0.66481999999999997</v>
       </c>
-      <c r="E74">
-        <v>0.68013000000000001</v>
+      <c r="E74" s="39">
+        <v>0.77464</v>
+      </c>
+      <c r="F74" s="39">
+        <v>0.67246799999999995</v>
+      </c>
+      <c r="G74">
+        <v>0.76915999999999995</v>
+      </c>
+      <c r="H74">
+        <v>0.68384999999999996</v>
+      </c>
+      <c r="I74">
+        <v>0.76336000000000004</v>
+      </c>
+      <c r="J74">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="K74">
+        <v>0.72423000000000004</v>
+      </c>
+      <c r="L74">
+        <v>0.64188999999999996</v>
       </c>
       <c r="AA74" s="1"/>
     </row>
@@ -8499,8 +13087,29 @@
       <c r="D75">
         <v>0.67879</v>
       </c>
-      <c r="E75">
-        <v>0.71196000000000004</v>
+      <c r="E75" s="39">
+        <v>0.77520500000000003</v>
+      </c>
+      <c r="F75" s="39">
+        <v>0.66564500000000004</v>
+      </c>
+      <c r="G75">
+        <v>0.77212999999999998</v>
+      </c>
+      <c r="H75">
+        <v>0.68205000000000005</v>
+      </c>
+      <c r="I75">
+        <v>0.76619000000000004</v>
+      </c>
+      <c r="J75">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="K75">
+        <v>0.72826999999999997</v>
+      </c>
+      <c r="L75">
+        <v>0.64903999999999995</v>
       </c>
       <c r="AA75" s="1"/>
     </row>
@@ -8514,8 +13123,29 @@
       <c r="D76">
         <v>0.68059000000000003</v>
       </c>
-      <c r="E76">
-        <v>0.71142000000000005</v>
+      <c r="E76" s="39">
+        <v>0.77563700000000002</v>
+      </c>
+      <c r="F76" s="39">
+        <v>0.67632099999999995</v>
+      </c>
+      <c r="G76">
+        <v>0.77578000000000003</v>
+      </c>
+      <c r="H76">
+        <v>0.67884999999999995</v>
+      </c>
+      <c r="I76">
+        <v>0.77183000000000002</v>
+      </c>
+      <c r="J76">
+        <v>0.65935999999999995</v>
+      </c>
+      <c r="K76">
+        <v>0.73714000000000002</v>
+      </c>
+      <c r="L76">
+        <v>0.65225999999999995</v>
       </c>
       <c r="AA76" s="1"/>
     </row>
@@ -8529,8 +13159,29 @@
       <c r="D77">
         <v>0.68086999999999998</v>
       </c>
-      <c r="E77" s="36">
-        <v>0.73509999999999998</v>
+      <c r="E77" s="39">
+        <v>0.77069399999999999</v>
+      </c>
+      <c r="F77" s="39">
+        <v>0.67145900000000003</v>
+      </c>
+      <c r="G77">
+        <v>0.77354999999999996</v>
+      </c>
+      <c r="H77">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="I77">
+        <v>0.77841000000000005</v>
+      </c>
+      <c r="J77">
+        <v>0.67347000000000001</v>
+      </c>
+      <c r="K77">
+        <v>0.73916999999999999</v>
+      </c>
+      <c r="L77">
+        <v>0.65671999999999997</v>
       </c>
       <c r="AA77" s="1"/>
     </row>
@@ -8544,8 +13195,29 @@
       <c r="D78">
         <v>0.64341999999999999</v>
       </c>
-      <c r="E78">
-        <v>0.64803999999999995</v>
+      <c r="E78" s="39">
+        <v>0.77692099999999997</v>
+      </c>
+      <c r="F78" s="39">
+        <v>0.64006399999999997</v>
+      </c>
+      <c r="G78">
+        <v>0.77403999999999995</v>
+      </c>
+      <c r="H78">
+        <v>0.63304000000000005</v>
+      </c>
+      <c r="I78">
+        <v>0.77585999999999999</v>
+      </c>
+      <c r="J78">
+        <v>0.66737000000000002</v>
+      </c>
+      <c r="K78">
+        <v>0.74897999999999998</v>
+      </c>
+      <c r="L78">
+        <v>0.63927</v>
       </c>
       <c r="AA78" s="1"/>
     </row>
@@ -8553,134 +13225,863 @@
       <c r="B79" s="1">
         <v>160</v>
       </c>
-      <c r="C79" s="36">
+      <c r="C79">
         <v>0.77881</v>
       </c>
-      <c r="D79" s="36">
+      <c r="D79">
         <v>0.68242000000000003</v>
       </c>
-      <c r="E79">
-        <v>0.70886000000000005</v>
+      <c r="E79" s="39">
+        <v>0.77354500000000004</v>
+      </c>
+      <c r="F79" s="40">
+        <v>0.67882900000000002</v>
+      </c>
+      <c r="G79">
+        <v>0.77946000000000004</v>
+      </c>
+      <c r="H79">
+        <v>0.69098000000000004</v>
+      </c>
+      <c r="I79">
+        <v>0.77349000000000001</v>
+      </c>
+      <c r="J79">
+        <v>0.68096000000000001</v>
+      </c>
+      <c r="K79">
+        <v>0.74621000000000004</v>
+      </c>
+      <c r="L79">
+        <v>0.65776999999999997</v>
       </c>
     </row>
     <row r="80" spans="2:27">
       <c r="B80" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
+      <c r="C80">
+        <v>0.77934999999999999</v>
+      </c>
+      <c r="D80">
+        <v>0.67698000000000003</v>
+      </c>
+      <c r="E80" s="39">
+        <v>0.77723500000000001</v>
+      </c>
+      <c r="F80" s="39">
+        <v>0.65906299999999995</v>
+      </c>
+      <c r="G80">
+        <v>0.78088000000000002</v>
+      </c>
+      <c r="H80">
+        <v>0.67288000000000003</v>
+      </c>
+      <c r="I80">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="J80">
+        <v>0.65712999999999999</v>
+      </c>
+      <c r="K80">
+        <v>0.74883999999999995</v>
+      </c>
+      <c r="L80">
+        <v>0.66166999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="82" spans="2:2">
+      <c r="C81">
+        <v>0.78088999999999997</v>
+      </c>
+      <c r="D81">
+        <v>0.65266999999999997</v>
+      </c>
+      <c r="E81" s="39">
+        <v>0.77837500000000004</v>
+      </c>
+      <c r="F81" s="39">
+        <v>0.66993499999999995</v>
+      </c>
+      <c r="G81">
+        <v>0.78288000000000002</v>
+      </c>
+      <c r="H81">
+        <v>0.63929000000000002</v>
+      </c>
+      <c r="I81">
+        <v>0.77315999999999996</v>
+      </c>
+      <c r="J81">
+        <v>0.66634000000000004</v>
+      </c>
+      <c r="K81">
+        <v>0.74956</v>
+      </c>
+      <c r="L81">
+        <v>0.66671000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
       <c r="B82" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="83" spans="2:2">
+      <c r="C82">
+        <v>0.77883999999999998</v>
+      </c>
+      <c r="D82">
+        <v>0.66347999999999996</v>
+      </c>
+      <c r="E82" s="39">
+        <v>0.78245399999999998</v>
+      </c>
+      <c r="F82" s="41">
+        <v>0.69361099999999998</v>
+      </c>
+      <c r="G82">
+        <v>0.77915000000000001</v>
+      </c>
+      <c r="H82">
+        <v>0.67437999999999998</v>
+      </c>
+      <c r="I82">
+        <v>0.77020999999999995</v>
+      </c>
+      <c r="J82">
+        <v>0.63366999999999996</v>
+      </c>
+      <c r="K82">
+        <v>0.75109999999999999</v>
+      </c>
+      <c r="L82" s="36">
+        <v>0.67017000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="2:2">
+      <c r="C83">
+        <v>0.77893999999999997</v>
+      </c>
+      <c r="D83">
+        <v>0.67215999999999998</v>
+      </c>
+      <c r="E83" s="39">
+        <v>0.783196</v>
+      </c>
+      <c r="F83" s="39">
+        <v>0.68845599999999996</v>
+      </c>
+      <c r="G83">
+        <v>0.78386999999999996</v>
+      </c>
+      <c r="H83">
+        <v>0.65456000000000003</v>
+      </c>
+      <c r="I83" s="36">
+        <v>0.77864999999999995</v>
+      </c>
+      <c r="J83">
+        <v>0.68193000000000004</v>
+      </c>
+      <c r="K83" s="36">
+        <v>0.75531000000000004</v>
+      </c>
+      <c r="L83">
+        <v>0.65736000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="2:2">
+      <c r="C84">
+        <v>0.78444999999999998</v>
+      </c>
+      <c r="D84">
+        <v>0.64751999999999998</v>
+      </c>
+      <c r="E84" s="41">
+        <v>0.78592300000000004</v>
+      </c>
+      <c r="F84" s="39">
+        <v>0.68511</v>
+      </c>
+      <c r="G84" s="36">
+        <v>0.78542000000000001</v>
+      </c>
+      <c r="H84">
+        <v>0.69072999999999996</v>
+      </c>
+      <c r="I84">
+        <v>0.77371000000000001</v>
+      </c>
+      <c r="J84">
+        <v>0.68062999999999996</v>
+      </c>
+      <c r="K84">
+        <v>0.75382000000000005</v>
+      </c>
+      <c r="L84">
+        <v>0.67206999999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="86" spans="2:2">
+      <c r="C85">
+        <v>0.77637999999999996</v>
+      </c>
+      <c r="D85">
+        <v>0.68430999999999997</v>
+      </c>
+      <c r="E85" s="39">
+        <v>0.77511300000000005</v>
+      </c>
+      <c r="F85" s="39">
+        <v>0.68741399999999997</v>
+      </c>
+      <c r="G85" s="42">
+        <v>0.78500999999999999</v>
+      </c>
+      <c r="H85">
+        <v>0.65105000000000002</v>
+      </c>
+      <c r="I85">
+        <v>0.77198999999999995</v>
+      </c>
+      <c r="J85">
+        <v>0.66537999999999997</v>
+      </c>
+      <c r="K85">
+        <v>0.61058999999999997</v>
+      </c>
+      <c r="L85">
+        <v>0.54808000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
       <c r="B86" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="87" spans="2:2">
+      <c r="C86" s="36">
+        <v>0.78266000000000002</v>
+      </c>
+      <c r="D86">
+        <v>0.66708999999999996</v>
+      </c>
+      <c r="E86" s="39">
+        <v>0.78188199999999997</v>
+      </c>
+      <c r="F86" s="39">
+        <v>0.69441600000000003</v>
+      </c>
+      <c r="G86">
+        <v>0.78354999999999997</v>
+      </c>
+      <c r="H86">
+        <v>0.68925999999999998</v>
+      </c>
+      <c r="I86">
+        <v>0.77222000000000002</v>
+      </c>
+      <c r="J86">
+        <v>0.64905000000000002</v>
+      </c>
+      <c r="K86">
+        <v>0.64761000000000002</v>
+      </c>
+      <c r="L86">
+        <v>0.58986000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
       <c r="B87" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="88" spans="2:2">
+      <c r="C87">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="D87">
+        <v>0.68296000000000001</v>
+      </c>
+      <c r="E87" s="39">
+        <v>0.78325299999999998</v>
+      </c>
+      <c r="F87" s="39">
+        <v>0.64140299999999995</v>
+      </c>
+      <c r="G87">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="H87">
+        <v>0.69113999999999998</v>
+      </c>
+      <c r="I87">
+        <v>0.77295000000000003</v>
+      </c>
+      <c r="J87">
+        <v>0.69430000000000003</v>
+      </c>
+      <c r="K87">
+        <v>0.66796</v>
+      </c>
+      <c r="L87">
+        <v>0.61460000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
       <c r="B88" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="89" spans="2:2">
+      <c r="C88">
+        <v>0.77556000000000003</v>
+      </c>
+      <c r="D88">
+        <v>0.68252999999999997</v>
+      </c>
+      <c r="E88" s="39">
+        <v>0.778783</v>
+      </c>
+      <c r="F88" s="39">
+        <v>0.67810499999999996</v>
+      </c>
+      <c r="G88">
+        <v>0.78396999999999994</v>
+      </c>
+      <c r="H88" s="36">
+        <v>0.69725999999999999</v>
+      </c>
+      <c r="I88">
+        <v>0.76614000000000004</v>
+      </c>
+      <c r="J88">
+        <v>0.64700999999999997</v>
+      </c>
+      <c r="K88">
+        <v>0.68357999999999997</v>
+      </c>
+      <c r="L88">
+        <v>0.62231000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" spans="2:2">
+      <c r="C89">
+        <v>0.77873999999999999</v>
+      </c>
+      <c r="D89" s="36">
+        <v>0.68889</v>
+      </c>
+      <c r="E89" s="39">
+        <v>0.78010699999999999</v>
+      </c>
+      <c r="F89" s="39">
+        <v>0.682342</v>
+      </c>
+      <c r="G89">
+        <v>0.78051999999999999</v>
+      </c>
+      <c r="H89">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="I89">
+        <v>0.77354999999999996</v>
+      </c>
+      <c r="J89">
+        <v>0.69096999999999997</v>
+      </c>
+      <c r="K89">
+        <v>0.68894999999999995</v>
+      </c>
+      <c r="L89">
+        <v>0.61728000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
       <c r="B90" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="91" spans="2:2">
+      <c r="C90">
+        <v>0.78159000000000001</v>
+      </c>
+      <c r="D90">
+        <v>0.65603999999999996</v>
+      </c>
+      <c r="E90" s="39">
+        <v>0.780308</v>
+      </c>
+      <c r="F90" s="39">
+        <v>0.68627800000000005</v>
+      </c>
+      <c r="G90">
+        <v>0.77444999999999997</v>
+      </c>
+      <c r="H90">
+        <v>0.68749000000000005</v>
+      </c>
+      <c r="I90">
+        <v>0.76961000000000002</v>
+      </c>
+      <c r="J90">
+        <v>0.68442999999999998</v>
+      </c>
+      <c r="K90">
+        <v>0.70247999999999999</v>
+      </c>
+      <c r="L90">
+        <v>0.63197000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
       <c r="B91" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="92" spans="2:2">
+      <c r="C91">
+        <v>0.78098000000000001</v>
+      </c>
+      <c r="D91">
+        <v>0.68686999999999998</v>
+      </c>
+      <c r="E91" s="39">
+        <v>0.779331</v>
+      </c>
+      <c r="F91" s="39">
+        <v>0.66360399999999997</v>
+      </c>
+      <c r="G91">
+        <v>0.77827999999999997</v>
+      </c>
+      <c r="H91">
+        <v>0.67447000000000001</v>
+      </c>
+      <c r="I91">
+        <v>0.77692000000000005</v>
+      </c>
+      <c r="J91">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K91">
+        <v>0.71367000000000003</v>
+      </c>
+      <c r="L91">
+        <v>0.63036999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
       <c r="B92" s="1">
         <v>290</v>
       </c>
-    </row>
-    <row r="93" spans="2:2">
+      <c r="C92">
+        <v>0.78168000000000004</v>
+      </c>
+      <c r="D92">
+        <v>0.68103000000000002</v>
+      </c>
+      <c r="E92" s="39">
+        <v>0.77937000000000001</v>
+      </c>
+      <c r="F92" s="39">
+        <v>0.67906599999999995</v>
+      </c>
+      <c r="G92">
+        <v>0.78183999999999998</v>
+      </c>
+      <c r="H92">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="I92">
+        <v>0.77863000000000004</v>
+      </c>
+      <c r="J92" s="36">
+        <v>0.69711999999999996</v>
+      </c>
+      <c r="K92" s="42">
+        <v>0.70623000000000002</v>
+      </c>
+      <c r="L92">
+        <v>0.62878000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
       <c r="B93" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="94" spans="2:2">
+      <c r="C93">
+        <v>0.78054000000000001</v>
+      </c>
+      <c r="D93">
+        <v>0.65242</v>
+      </c>
+      <c r="E93" s="39">
+        <v>0.77863199999999999</v>
+      </c>
+      <c r="F93" s="39">
+        <v>0.67363099999999998</v>
+      </c>
+      <c r="G93">
+        <v>0.78381000000000001</v>
+      </c>
+      <c r="H93">
+        <v>0.67959000000000003</v>
+      </c>
+      <c r="I93">
+        <v>0.77368999999999999</v>
+      </c>
+      <c r="J93">
+        <v>0.69155</v>
+      </c>
+      <c r="K93">
+        <v>0.72216000000000002</v>
+      </c>
+      <c r="L93">
+        <v>0.64127000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
       <c r="B94" s="1">
         <v>310</v>
       </c>
-    </row>
-    <row r="95" spans="2:2">
+      <c r="C94">
+        <v>0.78090999999999999</v>
+      </c>
+      <c r="D94">
+        <v>0.66888000000000003</v>
+      </c>
+      <c r="E94" s="39">
+        <v>0.77344299999999999</v>
+      </c>
+      <c r="F94" s="39">
+        <v>0.68294999999999995</v>
+      </c>
+      <c r="G94">
+        <v>0.77825999999999995</v>
+      </c>
+      <c r="H94">
+        <v>0.69662999999999997</v>
+      </c>
+      <c r="I94">
+        <v>0.77549999999999997</v>
+      </c>
+      <c r="J94">
+        <v>0.69145999999999996</v>
+      </c>
+      <c r="K94">
+        <v>0.72255999999999998</v>
+      </c>
+      <c r="L94">
+        <v>0.64558000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
       <c r="B95" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="96" spans="2:2">
+      <c r="C95">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="D95">
+        <v>0.66951000000000005</v>
+      </c>
+      <c r="E95" s="39">
+        <v>0.77441599999999999</v>
+      </c>
+      <c r="F95" s="39">
+        <v>0.65550600000000003</v>
+      </c>
+      <c r="G95">
+        <v>0.78047</v>
+      </c>
+      <c r="H95">
+        <v>0.68264000000000002</v>
+      </c>
+      <c r="I95">
+        <v>0.76915</v>
+      </c>
+      <c r="J95">
+        <v>0.67052</v>
+      </c>
+      <c r="K95">
+        <v>0.72865999999999997</v>
+      </c>
+      <c r="L95">
+        <v>0.64715</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
       <c r="B96" s="1">
         <v>330</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
+      <c r="C96">
+        <v>0.77803</v>
+      </c>
+      <c r="D96">
+        <v>0.62031999999999998</v>
+      </c>
+      <c r="E96" s="39">
+        <v>0.76888800000000002</v>
+      </c>
+      <c r="F96" s="39">
+        <v>0.68169400000000002</v>
+      </c>
+      <c r="G96">
+        <v>0.77617000000000003</v>
+      </c>
+      <c r="H96">
+        <v>0.63922000000000001</v>
+      </c>
+      <c r="I96">
+        <v>0.76378000000000001</v>
+      </c>
+      <c r="J96">
+        <v>0.66703999999999997</v>
+      </c>
+      <c r="K96">
+        <v>0.73211999999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.64395000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
       <c r="B97" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
+      <c r="C97">
+        <v>0.77293000000000001</v>
+      </c>
+      <c r="D97">
+        <v>0.68659000000000003</v>
+      </c>
+      <c r="E97" s="39">
+        <v>0.77255600000000002</v>
+      </c>
+      <c r="F97" s="39">
+        <v>0.681253</v>
+      </c>
+      <c r="G97">
+        <v>0.77105000000000001</v>
+      </c>
+      <c r="H97">
+        <v>0.67473000000000005</v>
+      </c>
+      <c r="I97">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J97">
+        <v>0.66669</v>
+      </c>
+      <c r="K97">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="L97">
+        <v>0.64127000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
       <c r="B98" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
+      <c r="C98">
+        <v>0.77795000000000003</v>
+      </c>
+      <c r="D98">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="E98" s="39">
+        <v>0.77544500000000005</v>
+      </c>
+      <c r="F98" s="39">
+        <v>0.68820400000000004</v>
+      </c>
+      <c r="G98">
+        <v>0.77983999999999998</v>
+      </c>
+      <c r="H98">
+        <v>0.67142999999999997</v>
+      </c>
+      <c r="I98">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J98">
+        <v>0.66137000000000001</v>
+      </c>
+      <c r="K98">
+        <v>0.73860999999999999</v>
+      </c>
+      <c r="L98">
+        <v>0.64807000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12">
       <c r="B99" s="1">
         <v>360</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
+      <c r="C99">
+        <v>0.77939000000000003</v>
+      </c>
+      <c r="D99">
+        <v>0.67418</v>
+      </c>
+      <c r="E99" s="39">
+        <v>0.77001900000000001</v>
+      </c>
+      <c r="F99" s="39">
+        <v>0.67983000000000005</v>
+      </c>
+      <c r="G99">
+        <v>0.77234000000000003</v>
+      </c>
+      <c r="H99">
+        <v>0.68001</v>
+      </c>
+      <c r="I99">
+        <v>0.76548000000000005</v>
+      </c>
+      <c r="J99">
+        <v>0.68601999999999996</v>
+      </c>
+      <c r="K99">
+        <v>0.73704999999999998</v>
+      </c>
+      <c r="L99">
+        <v>0.63907999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12">
       <c r="B100" s="1">
         <v>370</v>
       </c>
-    </row>
-    <row r="101" spans="2:2">
+      <c r="C100">
+        <v>0.77722999999999998</v>
+      </c>
+      <c r="D100">
+        <v>0.68913999999999997</v>
+      </c>
+      <c r="E100" s="39">
+        <v>0.770374</v>
+      </c>
+      <c r="F100" s="39">
+        <v>0.67453300000000005</v>
+      </c>
+      <c r="G100">
+        <v>0.77383999999999997</v>
+      </c>
+      <c r="H100">
+        <v>0.68001999999999996</v>
+      </c>
+      <c r="I100">
+        <v>0.77222999999999997</v>
+      </c>
+      <c r="J100">
+        <v>0.68925999999999998</v>
+      </c>
+      <c r="K100">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="L100">
+        <v>0.65349000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12">
       <c r="B101" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="102" spans="2:2">
+      <c r="C101">
+        <v>0.76846999999999999</v>
+      </c>
+      <c r="D101">
+        <v>0.68257000000000001</v>
+      </c>
+      <c r="E101" s="39">
+        <v>0.769598</v>
+      </c>
+      <c r="F101" s="39">
+        <v>0.68227700000000002</v>
+      </c>
+      <c r="G101">
+        <v>0.77222000000000002</v>
+      </c>
+      <c r="H101">
+        <v>0.68618000000000001</v>
+      </c>
+      <c r="I101">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="J101">
+        <v>0.68866000000000005</v>
+      </c>
+      <c r="K101">
+        <v>0.73997999999999997</v>
+      </c>
+      <c r="L101">
+        <v>0.65302000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12">
       <c r="B102" s="1">
         <v>390</v>
       </c>
-    </row>
-    <row r="103" spans="2:2">
+      <c r="C102">
+        <v>0.76966999999999997</v>
+      </c>
+      <c r="D102">
+        <v>0.68213000000000001</v>
+      </c>
+      <c r="E102" s="39">
+        <v>0.76717500000000005</v>
+      </c>
+      <c r="F102" s="39">
+        <v>0.68118199999999995</v>
+      </c>
+      <c r="G102">
+        <v>0.77073000000000003</v>
+      </c>
+      <c r="H102">
+        <v>0.68462999999999996</v>
+      </c>
+      <c r="I102">
+        <v>0.76026000000000005</v>
+      </c>
+      <c r="J102">
+        <v>0.69033999999999995</v>
+      </c>
+      <c r="K102">
+        <v>0.74143999999999999</v>
+      </c>
+      <c r="L102">
+        <v>0.65739999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12">
       <c r="B103" s="1">
         <v>400</v>
+      </c>
+      <c r="C103">
+        <v>0.77903999999999995</v>
+      </c>
+      <c r="D103">
+        <v>0.66254999999999997</v>
+      </c>
+      <c r="E103" s="39">
+        <v>0.77098800000000001</v>
+      </c>
+      <c r="F103" s="39">
+        <v>0.67877100000000001</v>
+      </c>
+      <c r="I103">
+        <v>0.76293999999999995</v>
+      </c>
+      <c r="J103">
+        <v>0.67339000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/results/results-vitto2.xlsx
+++ b/results/results-vitto2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vittorio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33550A81-DE0B-49D3-A6E4-01ABA7EF9223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78272247-B01A-4F0E-9043-710BB8CBDC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -705,6 +705,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="8" xr:uid="{E299F07A-93FA-4915-870D-4F5F1D61303D}"/>
@@ -5117,6 +5121,9 @@
                 <c:pt idx="38">
                   <c:v>0.77073000000000003</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77810999999999997</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6656,6 +6663,9 @@
                 <c:pt idx="37">
                   <c:v>0.68462999999999996</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.69140000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7621,6 +7631,3160 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BA58-45C1-9449-9CFF1428C930}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213703679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213700767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213700767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.72000000000000008"/>
+          <c:min val="0.59000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213703679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>f-AUC (28_x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40085925286289648"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$K$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(28)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$K$64:$K$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.60707999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62882000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66627999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67849000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68391999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69249000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70293000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70977999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72206999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72423000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72826999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.73714000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73916999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74897999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74621000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74883999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.75531000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.75382000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61058999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.64761000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66796</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68357999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68894999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70247999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71367000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70623000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72216000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72255999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72865999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73211999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73860999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.73704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.73746999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73997999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74143999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.74314000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B8A-45B6-8F58-748609ACB97E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$M$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(28_2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$M$64:$M$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.64140600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70616699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72548299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73377400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74489499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75541700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76143700000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76880899999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76782700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76828099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.774482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77559900000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78268599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77508500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.780555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78366000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78349800000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77864800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78420100000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78798900000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78855500000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78615500000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.788601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78404399999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78487499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79212700000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.78825400000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78931200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78534199999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78190300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.78876900000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78743700000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78480399999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78447199999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77913100000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77842299999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78345500000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77589699999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77005400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B8A-45B6-8F58-748609ACB97E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$O$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(28_3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$O$64:$O$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2B8A-45B6-8F58-748609ACB97E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$Q$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(28_4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$Q$64:$Q$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEBF-4118-B5D1-FD027790A77A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$S$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(28_5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$S$64:$S$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BEBF-4118-B5D1-FD027790A77A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$U$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(28_6)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$U$64:$U$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BEBF-4118-B5D1-FD027790A77A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213703679"/>
+        <c:axId val="213700767"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>epochs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2B8A-45B6-8F58-748609ACB97E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213703679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213700767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213700767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.69000000000000017"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213703679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>F1-Mean (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>28_x</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40085925286289648"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$L$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(28)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$L$64:$L$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41243000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60052000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60514999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61375000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61756999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63448000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61958999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64188999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64903999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65225999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65776999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66166999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66671000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67017000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65736000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67206999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54808000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58986000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62231000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.61728000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63197000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63036999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62878000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64127000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64558000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64715</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64395000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64127000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64807000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63907999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65349000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65302000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65475000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A938-4D7C-8163-84A20081E5AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$N$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(28_2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$64:$N$103</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.56779800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59803499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63741999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65724300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65948099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64862900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66962200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67858600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67923800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67184999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65294399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67962999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64738899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69127700000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66971800000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68577699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67392300000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69991499999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69368799999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69847400000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68041700000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69713000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68649199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69540599999999997</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.68251399999999995</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.68860100000000002</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.66173599999999999</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.66988599999999998</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.67551099999999997</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.684284</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.67500899999999997</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.70141500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.661327</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.68668300000000004</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.69123400000000002</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.68216900000000003</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.67971700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A938-4D7C-8163-84A20081E5AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$P$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(28_3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$P$64:$P$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A938-4D7C-8163-84A20081E5AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$R$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(28_4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$R$64:$R$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9848-4520-A4C0-9117F861DE58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$T$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(28_5)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$T$64:$T$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9848-4520-A4C0-9117F861DE58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$V$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(28_6)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$V$64:$V$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9848-4520-A4C0-9117F861DE58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213703679"/>
+        <c:axId val="213700767"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>epochs</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$64:$B$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>220</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>230</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>260</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>270</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>290</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>340</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>360</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>370</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A938-4D7C-8163-84A20081E5AF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -8020,6 +11184,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -10072,6 +13316,1012 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10753,6 +15003,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11504</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>26719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6751C943-D053-4FD2-A6D2-BCBD65456AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>433326</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>26719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94D8A32-2A77-40C9-83B0-E4CAEF35C23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11026,8 +15352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11045,12 +15371,12 @@
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -12715,6 +17041,12 @@
       <c r="L64">
         <v>0</v>
       </c>
+      <c r="M64">
+        <v>0.64140600000000003</v>
+      </c>
+      <c r="N64" s="43">
+        <v>0.56779800000000002</v>
+      </c>
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="2:27">
@@ -12751,6 +17083,12 @@
       <c r="L65">
         <v>0</v>
       </c>
+      <c r="M65">
+        <v>0.70616699999999999</v>
+      </c>
+      <c r="N65" s="43">
+        <v>0.59803499999999998</v>
+      </c>
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="2:27">
@@ -12787,6 +17125,12 @@
       <c r="L66">
         <v>0.18761</v>
       </c>
+      <c r="M66">
+        <v>0.72548299999999999</v>
+      </c>
+      <c r="N66" s="43">
+        <v>0.63741999999999999</v>
+      </c>
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="2:27">
@@ -12823,6 +17167,12 @@
       <c r="L67">
         <v>0.41243000000000002</v>
       </c>
+      <c r="M67">
+        <v>0.73377400000000004</v>
+      </c>
+      <c r="N67" s="43">
+        <v>0.65724300000000002</v>
+      </c>
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27">
@@ -12859,6 +17209,12 @@
       <c r="L68">
         <v>0.60052000000000005</v>
       </c>
+      <c r="M68">
+        <v>0.74489499999999997</v>
+      </c>
+      <c r="N68" s="43">
+        <v>0.65948099999999998</v>
+      </c>
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="2:27">
@@ -12895,6 +17251,12 @@
       <c r="L69">
         <v>0.60514999999999997</v>
       </c>
+      <c r="M69">
+        <v>0.75541700000000001</v>
+      </c>
+      <c r="N69" s="43">
+        <v>0.64862900000000001</v>
+      </c>
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="2:27">
@@ -12931,6 +17293,12 @@
       <c r="L70">
         <v>0.61375000000000002</v>
       </c>
+      <c r="M70">
+        <v>0.76143700000000003</v>
+      </c>
+      <c r="N70" s="43">
+        <v>0.66962200000000005</v>
+      </c>
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="2:27">
@@ -12967,6 +17335,12 @@
       <c r="L71">
         <v>0.61756999999999995</v>
       </c>
+      <c r="M71">
+        <v>0.76880899999999996</v>
+      </c>
+      <c r="N71" s="44">
+        <v>0.67858600000000002</v>
+      </c>
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="2:27">
@@ -13003,6 +17377,12 @@
       <c r="L72">
         <v>0.63448000000000004</v>
       </c>
+      <c r="M72">
+        <v>0.76782700000000004</v>
+      </c>
+      <c r="N72" s="43">
+        <v>0.67923800000000001</v>
+      </c>
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="2:27">
@@ -13039,6 +17419,12 @@
       <c r="L73">
         <v>0.61958999999999997</v>
       </c>
+      <c r="M73">
+        <v>0.76828099999999999</v>
+      </c>
+      <c r="N73" s="43">
+        <v>0.67369999999999997</v>
+      </c>
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="2:27">
@@ -13075,6 +17461,12 @@
       <c r="L74">
         <v>0.64188999999999996</v>
       </c>
+      <c r="M74">
+        <v>0.774482</v>
+      </c>
+      <c r="N74" s="43">
+        <v>0.67184999999999995</v>
+      </c>
       <c r="AA74" s="1"/>
     </row>
     <row r="75" spans="2:27">
@@ -13111,6 +17503,12 @@
       <c r="L75">
         <v>0.64903999999999995</v>
       </c>
+      <c r="M75">
+        <v>0.77559900000000004</v>
+      </c>
+      <c r="N75" s="43">
+        <v>0.65294399999999997</v>
+      </c>
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="2:27">
@@ -13147,6 +17545,12 @@
       <c r="L76">
         <v>0.65225999999999995</v>
       </c>
+      <c r="M76">
+        <v>0.78268599999999999</v>
+      </c>
+      <c r="N76" s="43">
+        <v>0.66893999999999998</v>
+      </c>
       <c r="AA76" s="1"/>
     </row>
     <row r="77" spans="2:27">
@@ -13183,6 +17587,12 @@
       <c r="L77">
         <v>0.65671999999999997</v>
       </c>
+      <c r="M77">
+        <v>0.77508500000000002</v>
+      </c>
+      <c r="N77" s="43">
+        <v>0.67962999999999996</v>
+      </c>
       <c r="AA77" s="1"/>
     </row>
     <row r="78" spans="2:27">
@@ -13219,6 +17629,12 @@
       <c r="L78">
         <v>0.63927</v>
       </c>
+      <c r="M78">
+        <v>0.780555</v>
+      </c>
+      <c r="N78" s="43">
+        <v>0.64738899999999999</v>
+      </c>
       <c r="AA78" s="1"/>
     </row>
     <row r="79" spans="2:27">
@@ -13255,6 +17671,12 @@
       <c r="L79">
         <v>0.65776999999999997</v>
       </c>
+      <c r="M79">
+        <v>0.78366000000000002</v>
+      </c>
+      <c r="N79" s="43">
+        <v>0.69127700000000003</v>
+      </c>
     </row>
     <row r="80" spans="2:27">
       <c r="B80" s="1">
@@ -13290,8 +17712,14 @@
       <c r="L80">
         <v>0.66166999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="2:12">
+      <c r="M80">
+        <v>0.78349800000000003</v>
+      </c>
+      <c r="N80" s="43">
+        <v>0.66971800000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
       <c r="B81" s="1">
         <v>180</v>
       </c>
@@ -13325,8 +17753,14 @@
       <c r="L81">
         <v>0.66671000000000002</v>
       </c>
-    </row>
-    <row r="82" spans="2:12">
+      <c r="M81">
+        <v>0.77864800000000001</v>
+      </c>
+      <c r="N81" s="43">
+        <v>0.68577699999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
       <c r="B82" s="1">
         <v>190</v>
       </c>
@@ -13360,8 +17794,14 @@
       <c r="L82" s="36">
         <v>0.67017000000000004</v>
       </c>
-    </row>
-    <row r="83" spans="2:12">
+      <c r="M82">
+        <v>0.78420100000000004</v>
+      </c>
+      <c r="N82" s="43">
+        <v>0.67392300000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
       <c r="B83" s="1">
         <v>200</v>
       </c>
@@ -13395,8 +17835,14 @@
       <c r="L83">
         <v>0.65736000000000006</v>
       </c>
-    </row>
-    <row r="84" spans="2:12">
+      <c r="M83">
+        <v>0.78798900000000005</v>
+      </c>
+      <c r="N83" s="43">
+        <v>0.69991499999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84" s="1">
         <v>210</v>
       </c>
@@ -13430,8 +17876,14 @@
       <c r="L84">
         <v>0.67206999999999995</v>
       </c>
-    </row>
-    <row r="85" spans="2:12">
+      <c r="M84">
+        <v>0.78855500000000001</v>
+      </c>
+      <c r="N84" s="43">
+        <v>0.67201</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85" s="1">
         <v>220</v>
       </c>
@@ -13465,8 +17917,14 @@
       <c r="L85">
         <v>0.54808000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="2:12">
+      <c r="M85">
+        <v>0.78615500000000005</v>
+      </c>
+      <c r="N85" s="43">
+        <v>0.69368799999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86" s="1">
         <v>230</v>
       </c>
@@ -13500,8 +17958,14 @@
       <c r="L86">
         <v>0.58986000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="2:12">
+      <c r="M86">
+        <v>0.788601</v>
+      </c>
+      <c r="N86" s="43">
+        <v>0.69847400000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
       <c r="B87" s="1">
         <v>240</v>
       </c>
@@ -13535,8 +17999,14 @@
       <c r="L87">
         <v>0.61460000000000004</v>
       </c>
-    </row>
-    <row r="88" spans="2:12">
+      <c r="M87">
+        <v>0.78404399999999996</v>
+      </c>
+      <c r="N87" s="43">
+        <v>0.68041700000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
       <c r="B88" s="1">
         <v>250</v>
       </c>
@@ -13570,8 +18040,14 @@
       <c r="L88">
         <v>0.62231000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="2:12">
+      <c r="M88">
+        <v>0.787022</v>
+      </c>
+      <c r="N88" s="43">
+        <v>0.69713000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
       <c r="B89" s="1">
         <v>260</v>
       </c>
@@ -13605,8 +18081,14 @@
       <c r="L89">
         <v>0.61728000000000005</v>
       </c>
-    </row>
-    <row r="90" spans="2:12">
+      <c r="M89">
+        <v>0.78487499999999999</v>
+      </c>
+      <c r="N89" s="43">
+        <v>0.68649199999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
       <c r="B90" s="1">
         <v>270</v>
       </c>
@@ -13640,8 +18122,14 @@
       <c r="L90">
         <v>0.63197000000000003</v>
       </c>
-    </row>
-    <row r="91" spans="2:12">
+      <c r="M90" s="36">
+        <v>0.79212700000000003</v>
+      </c>
+      <c r="N90" s="43">
+        <v>0.69540599999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
       <c r="B91" s="1">
         <v>280</v>
       </c>
@@ -13675,8 +18163,14 @@
       <c r="L91">
         <v>0.63036999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="2:12">
+      <c r="M91">
+        <v>0.78825400000000001</v>
+      </c>
+      <c r="N91">
+        <v>0.68251399999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14">
       <c r="B92" s="1">
         <v>290</v>
       </c>
@@ -13710,8 +18204,14 @@
       <c r="L92">
         <v>0.62878000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="2:12">
+      <c r="M92" s="42">
+        <v>0.78931200000000001</v>
+      </c>
+      <c r="N92">
+        <v>0.68860100000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14">
       <c r="B93" s="1">
         <v>300</v>
       </c>
@@ -13745,8 +18245,14 @@
       <c r="L93">
         <v>0.64127000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="2:12">
+      <c r="M93">
+        <v>0.78534199999999998</v>
+      </c>
+      <c r="N93">
+        <v>0.66173599999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14">
       <c r="B94" s="1">
         <v>310</v>
       </c>
@@ -13780,8 +18286,14 @@
       <c r="L94">
         <v>0.64558000000000004</v>
       </c>
-    </row>
-    <row r="95" spans="2:12">
+      <c r="M94">
+        <v>0.78190300000000001</v>
+      </c>
+      <c r="N94">
+        <v>0.66988599999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14">
       <c r="B95" s="1">
         <v>320</v>
       </c>
@@ -13815,8 +18327,14 @@
       <c r="L95">
         <v>0.64715</v>
       </c>
-    </row>
-    <row r="96" spans="2:12">
+      <c r="M95">
+        <v>0.78876900000000005</v>
+      </c>
+      <c r="N95">
+        <v>0.67551099999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14">
       <c r="B96" s="1">
         <v>330</v>
       </c>
@@ -13850,8 +18368,14 @@
       <c r="L96">
         <v>0.64395000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="2:12">
+      <c r="M96">
+        <v>0.78743700000000005</v>
+      </c>
+      <c r="N96">
+        <v>0.684284</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14">
       <c r="B97" s="1">
         <v>340</v>
       </c>
@@ -13885,8 +18409,14 @@
       <c r="L97">
         <v>0.64127000000000001</v>
       </c>
-    </row>
-    <row r="98" spans="2:12">
+      <c r="M97">
+        <v>0.78480399999999995</v>
+      </c>
+      <c r="N97">
+        <v>0.67500899999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14">
       <c r="B98" s="1">
         <v>350</v>
       </c>
@@ -13920,8 +18450,14 @@
       <c r="L98">
         <v>0.64807000000000003</v>
       </c>
-    </row>
-    <row r="99" spans="2:12">
+      <c r="M98">
+        <v>0.78447199999999995</v>
+      </c>
+      <c r="N98" s="36">
+        <v>0.70141500000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14">
       <c r="B99" s="1">
         <v>360</v>
       </c>
@@ -13955,8 +18491,14 @@
       <c r="L99">
         <v>0.63907999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="2:12">
+      <c r="M99">
+        <v>0.77913100000000002</v>
+      </c>
+      <c r="N99">
+        <v>0.661327</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14">
       <c r="B100" s="1">
         <v>370</v>
       </c>
@@ -13990,8 +18532,14 @@
       <c r="L100">
         <v>0.65349000000000002</v>
       </c>
-    </row>
-    <row r="101" spans="2:12">
+      <c r="M100">
+        <v>0.77842299999999998</v>
+      </c>
+      <c r="N100">
+        <v>0.68668300000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14">
       <c r="B101" s="1">
         <v>380</v>
       </c>
@@ -14025,8 +18573,14 @@
       <c r="L101">
         <v>0.65302000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="2:12">
+      <c r="M101">
+        <v>0.78345500000000001</v>
+      </c>
+      <c r="N101">
+        <v>0.69123400000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14">
       <c r="B102" s="1">
         <v>390</v>
       </c>
@@ -14060,8 +18614,14 @@
       <c r="L102">
         <v>0.65739999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="2:12">
+      <c r="M102">
+        <v>0.77589699999999995</v>
+      </c>
+      <c r="N102">
+        <v>0.68216900000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14">
       <c r="B103" s="1">
         <v>400</v>
       </c>
@@ -14077,11 +18637,29 @@
       <c r="F103" s="39">
         <v>0.67877100000000001</v>
       </c>
+      <c r="G103">
+        <v>0.77810999999999997</v>
+      </c>
+      <c r="H103">
+        <v>0.69140000000000001</v>
+      </c>
       <c r="I103">
         <v>0.76293999999999995</v>
       </c>
       <c r="J103">
         <v>0.67339000000000004</v>
+      </c>
+      <c r="K103">
+        <v>0.74314000000000002</v>
+      </c>
+      <c r="L103">
+        <v>0.65475000000000005</v>
+      </c>
+      <c r="M103">
+        <v>0.77005400000000002</v>
+      </c>
+      <c r="N103">
+        <v>0.67971700000000002</v>
       </c>
     </row>
   </sheetData>

--- a/results/results-vitto2.xlsx
+++ b/results/results-vitto2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vittorio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78272247-B01A-4F0E-9043-710BB8CBDC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431C9B35-D3E6-428E-A3D6-4ACB655E031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Accuracy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
   <si>
     <t>epochs</t>
   </si>
@@ -278,18 +277,6 @@
   </si>
   <si>
     <t>f1-mean(28_4)</t>
-  </si>
-  <si>
-    <t>f-auc(28_5)</t>
-  </si>
-  <si>
-    <t>f1-mean(28_5)</t>
-  </si>
-  <si>
-    <t>f-auc(28_6)</t>
-  </si>
-  <si>
-    <t>f1-mean(28_6)</t>
   </si>
   <si>
     <t>28_2 = 22</t>
@@ -704,11 +691,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="8" xr:uid="{E299F07A-93FA-4915-870D-4F5F1D61303D}"/>
@@ -4783,7 +4770,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>f-AUC (26_x)</a:t>
+              <a:t>f-AUC (26_x) GRU 1-2-3 celle</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6317,8 +6304,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>)</a:t>
+              <a:t>) </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>GRU 1-2-3 celle</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7865,7 +7859,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>f-AUC (28_x)</a:t>
+              <a:t>f-AUC (28_x) random_batch 4/8/12/16</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8692,6 +8686,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.69723000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73196000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74877000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75468000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76415999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76802000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76888999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76490999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77453000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78081999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.77690999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78568000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78171999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78427999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77659</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77788000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77975000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77419000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77839000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77608999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.77907000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77368999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77432999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77486999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77090999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76807999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77141000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76680999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76780000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76365000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76368000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76351000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77512000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76422000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76295999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76551999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8746,6 +8860,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.71702999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73311999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74941000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75421000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75983999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76759999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76988000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7752</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77993999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78039000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77756000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.77290000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78005999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77598999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.77449000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.77202999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.77124999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77614000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77009000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76036000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76471999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76124000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.77020999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76593999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75573000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76210999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.76002999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.76132999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.75361</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.75551999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75448999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.75371999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.76121000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.74648999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75619999999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8764,9 +8998,6 @@
               <c:f>Foglio1!$S$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f-auc(28_5)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -8818,9 +9049,6 @@
               <c:f>Foglio1!$U$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f-auc(28_6)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -9443,12 +9671,9 @@
               <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>28_x</a:t>
+              <a:t>28_x) random_batch 4/8/12/16</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>)</a:t>
-            </a:r>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -10274,6 +10499,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.62187999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64624000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65192000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67112000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67069999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67623999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68088000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67630999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67776999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67847999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68491999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65922000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68806</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67137000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67423</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68522000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67176999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67513999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68325000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68479000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.67418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68167</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.68181000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.67727000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.69120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68101999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68838999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68352999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68881000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67664999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69074999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64427999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69333999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65841000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68349000000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67876000000000003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10328,6 +10673,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.55098000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65437000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66244999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66451000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67273000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65471999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66071999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67293000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67432000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68703999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66164999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66630999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69123000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66322000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69030999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67573000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67354999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67513000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68198999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67115999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67971999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68552000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68315000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68359000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67617000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66544000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68964999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68657999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68052000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.67123999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.68069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67766999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66805000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.67791000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.67630999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.67144000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.68515999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64300999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.68679000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10346,9 +10811,6 @@
               <c:f>Foglio1!$T$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f1-mean(28_5)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -10400,9 +10862,6 @@
               <c:f>Foglio1!$V$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f1-mean(28_6)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -15352,8 +15811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16939,7 +17398,7 @@
     </row>
     <row r="62" spans="2:27">
       <c r="N62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="2:27">
@@ -16994,18 +17453,6 @@
       <c r="R63" t="s">
         <v>78</v>
       </c>
-      <c r="S63" t="s">
-        <v>79</v>
-      </c>
-      <c r="T63" t="s">
-        <v>80</v>
-      </c>
-      <c r="U63" t="s">
-        <v>81</v>
-      </c>
-      <c r="V63" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="64" spans="2:27">
       <c r="B64" s="1">
@@ -17044,8 +17491,20 @@
       <c r="M64">
         <v>0.64140600000000003</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N64" s="42">
         <v>0.56779800000000002</v>
+      </c>
+      <c r="O64">
+        <v>0.69723000000000002</v>
+      </c>
+      <c r="P64">
+        <v>0.62187999999999999</v>
+      </c>
+      <c r="Q64">
+        <v>0.71702999999999995</v>
+      </c>
+      <c r="R64">
+        <v>0.55098000000000003</v>
       </c>
       <c r="AA64" s="1"/>
     </row>
@@ -17086,8 +17545,20 @@
       <c r="M65">
         <v>0.70616699999999999</v>
       </c>
-      <c r="N65" s="43">
+      <c r="N65" s="42">
         <v>0.59803499999999998</v>
+      </c>
+      <c r="O65">
+        <v>0.73196000000000006</v>
+      </c>
+      <c r="P65">
+        <v>0.64624000000000004</v>
+      </c>
+      <c r="Q65">
+        <v>0.73311999999999999</v>
+      </c>
+      <c r="R65">
+        <v>0.65437000000000001</v>
       </c>
       <c r="AA65" s="1"/>
     </row>
@@ -17128,8 +17599,20 @@
       <c r="M66">
         <v>0.72548299999999999</v>
       </c>
-      <c r="N66" s="43">
+      <c r="N66" s="42">
         <v>0.63741999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.74877000000000005</v>
+      </c>
+      <c r="P66">
+        <v>0.65192000000000005</v>
+      </c>
+      <c r="Q66">
+        <v>0.74941000000000002</v>
+      </c>
+      <c r="R66">
+        <v>0.66244999999999998</v>
       </c>
       <c r="AA66" s="1"/>
     </row>
@@ -17170,8 +17653,20 @@
       <c r="M67">
         <v>0.73377400000000004</v>
       </c>
-      <c r="N67" s="43">
+      <c r="N67" s="42">
         <v>0.65724300000000002</v>
+      </c>
+      <c r="O67">
+        <v>0.75468000000000002</v>
+      </c>
+      <c r="P67">
+        <v>0.67112000000000005</v>
+      </c>
+      <c r="Q67">
+        <v>0.75421000000000005</v>
+      </c>
+      <c r="R67">
+        <v>0.66451000000000005</v>
       </c>
       <c r="AA67" s="1"/>
     </row>
@@ -17212,8 +17707,20 @@
       <c r="M68">
         <v>0.74489499999999997</v>
       </c>
-      <c r="N68" s="43">
+      <c r="N68" s="42">
         <v>0.65948099999999998</v>
+      </c>
+      <c r="O68">
+        <v>0.76415999999999995</v>
+      </c>
+      <c r="P68">
+        <v>0.67069999999999996</v>
+      </c>
+      <c r="Q68">
+        <v>0.75983999999999996</v>
+      </c>
+      <c r="R68">
+        <v>0.67273000000000005</v>
       </c>
       <c r="AA68" s="1"/>
     </row>
@@ -17254,8 +17761,20 @@
       <c r="M69">
         <v>0.75541700000000001</v>
       </c>
-      <c r="N69" s="43">
+      <c r="N69" s="42">
         <v>0.64862900000000001</v>
+      </c>
+      <c r="O69">
+        <v>0.76802000000000004</v>
+      </c>
+      <c r="P69">
+        <v>0.67623999999999995</v>
+      </c>
+      <c r="Q69">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="R69">
+        <v>0.65471999999999997</v>
       </c>
       <c r="AA69" s="1"/>
     </row>
@@ -17296,8 +17815,20 @@
       <c r="M70">
         <v>0.76143700000000003</v>
       </c>
-      <c r="N70" s="43">
+      <c r="N70" s="42">
         <v>0.66962200000000005</v>
+      </c>
+      <c r="O70">
+        <v>0.76888999999999996</v>
+      </c>
+      <c r="P70">
+        <v>0.68088000000000004</v>
+      </c>
+      <c r="Q70">
+        <v>0.76988000000000001</v>
+      </c>
+      <c r="R70">
+        <v>0.66071999999999997</v>
       </c>
       <c r="AA70" s="1"/>
     </row>
@@ -17338,8 +17869,20 @@
       <c r="M71">
         <v>0.76880899999999996</v>
       </c>
-      <c r="N71" s="44">
+      <c r="N71" s="43">
         <v>0.67858600000000002</v>
+      </c>
+      <c r="O71">
+        <v>0.76490999999999998</v>
+      </c>
+      <c r="P71">
+        <v>0.67630999999999997</v>
+      </c>
+      <c r="Q71">
+        <v>0.7752</v>
+      </c>
+      <c r="R71">
+        <v>0.67293000000000003</v>
       </c>
       <c r="AA71" s="1"/>
     </row>
@@ -17380,8 +17923,20 @@
       <c r="M72">
         <v>0.76782700000000004</v>
       </c>
-      <c r="N72" s="43">
+      <c r="N72" s="42">
         <v>0.67923800000000001</v>
+      </c>
+      <c r="O72">
+        <v>0.77453000000000005</v>
+      </c>
+      <c r="P72">
+        <v>0.67776999999999998</v>
+      </c>
+      <c r="Q72">
+        <v>0.77176</v>
+      </c>
+      <c r="R72">
+        <v>0.67432000000000003</v>
       </c>
       <c r="AA72" s="1"/>
     </row>
@@ -17422,8 +17977,20 @@
       <c r="M73">
         <v>0.76828099999999999</v>
       </c>
-      <c r="N73" s="43">
+      <c r="N73" s="42">
         <v>0.67369999999999997</v>
+      </c>
+      <c r="O73">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="P73">
+        <v>0.67847999999999997</v>
+      </c>
+      <c r="Q73" s="44">
+        <v>0.77190999999999999</v>
+      </c>
+      <c r="R73" s="44">
+        <v>0.68703999999999998</v>
       </c>
       <c r="AA73" s="1"/>
     </row>
@@ -17464,8 +18031,20 @@
       <c r="M74">
         <v>0.774482</v>
       </c>
-      <c r="N74" s="43">
+      <c r="N74" s="42">
         <v>0.67184999999999995</v>
+      </c>
+      <c r="O74">
+        <v>0.77710000000000001</v>
+      </c>
+      <c r="P74">
+        <v>0.68491999999999997</v>
+      </c>
+      <c r="Q74">
+        <v>0.77993999999999997</v>
+      </c>
+      <c r="R74">
+        <v>0.66164999999999996</v>
       </c>
       <c r="AA74" s="1"/>
     </row>
@@ -17506,8 +18085,20 @@
       <c r="M75">
         <v>0.77559900000000004</v>
       </c>
-      <c r="N75" s="43">
+      <c r="N75" s="42">
         <v>0.65294399999999997</v>
+      </c>
+      <c r="O75">
+        <v>0.78081999999999996</v>
+      </c>
+      <c r="P75">
+        <v>0.67103000000000002</v>
+      </c>
+      <c r="Q75">
+        <v>0.77371999999999996</v>
+      </c>
+      <c r="R75">
+        <v>0.66630999999999996</v>
       </c>
       <c r="AA75" s="1"/>
     </row>
@@ -17548,8 +18139,20 @@
       <c r="M76">
         <v>0.78268599999999999</v>
       </c>
-      <c r="N76" s="43">
+      <c r="N76" s="42">
         <v>0.66893999999999998</v>
+      </c>
+      <c r="O76">
+        <v>0.77690999999999999</v>
+      </c>
+      <c r="P76">
+        <v>0.65922000000000003</v>
+      </c>
+      <c r="Q76" s="36">
+        <v>0.78039000000000003</v>
+      </c>
+      <c r="R76" s="36">
+        <v>0.69123000000000001</v>
       </c>
       <c r="AA76" s="1"/>
     </row>
@@ -17590,8 +18193,20 @@
       <c r="M77">
         <v>0.77508500000000002</v>
       </c>
-      <c r="N77" s="43">
+      <c r="N77" s="42">
         <v>0.67962999999999996</v>
+      </c>
+      <c r="O77">
+        <v>0.77798</v>
+      </c>
+      <c r="P77">
+        <v>0.68806</v>
+      </c>
+      <c r="Q77">
+        <v>0.77756000000000003</v>
+      </c>
+      <c r="R77">
+        <v>0.66322000000000003</v>
       </c>
       <c r="AA77" s="1"/>
     </row>
@@ -17632,8 +18247,20 @@
       <c r="M78">
         <v>0.780555</v>
       </c>
-      <c r="N78" s="43">
+      <c r="N78" s="42">
         <v>0.64738899999999999</v>
+      </c>
+      <c r="O78">
+        <v>0.78127000000000002</v>
+      </c>
+      <c r="P78">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="Q78">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="R78">
+        <v>0.69030999999999998</v>
       </c>
       <c r="AA78" s="1"/>
     </row>
@@ -17674,8 +18301,20 @@
       <c r="M79">
         <v>0.78366000000000002</v>
       </c>
-      <c r="N79" s="43">
+      <c r="N79" s="42">
         <v>0.69127700000000003</v>
+      </c>
+      <c r="O79" s="36">
+        <v>0.78568000000000005</v>
+      </c>
+      <c r="P79">
+        <v>0.67137000000000002</v>
+      </c>
+      <c r="Q79">
+        <v>0.78005999999999998</v>
+      </c>
+      <c r="R79">
+        <v>0.67573000000000005</v>
       </c>
     </row>
     <row r="80" spans="2:27">
@@ -17715,11 +18354,23 @@
       <c r="M80">
         <v>0.78349800000000003</v>
       </c>
-      <c r="N80" s="43">
+      <c r="N80" s="42">
         <v>0.66971800000000004</v>
       </c>
+      <c r="O80">
+        <v>0.78171999999999997</v>
+      </c>
+      <c r="P80">
+        <v>0.67423</v>
+      </c>
+      <c r="Q80">
+        <v>0.76483000000000001</v>
+      </c>
+      <c r="R80">
+        <v>0.67354999999999998</v>
+      </c>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:20">
       <c r="B81" s="1">
         <v>180</v>
       </c>
@@ -17756,11 +18407,23 @@
       <c r="M81">
         <v>0.77864800000000001</v>
       </c>
-      <c r="N81" s="43">
+      <c r="N81" s="42">
         <v>0.68577699999999997</v>
       </c>
+      <c r="O81">
+        <v>0.78427999999999998</v>
+      </c>
+      <c r="P81">
+        <v>0.68201000000000001</v>
+      </c>
+      <c r="Q81">
+        <v>0.77598999999999996</v>
+      </c>
+      <c r="R81">
+        <v>0.67513000000000001</v>
+      </c>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:20">
       <c r="B82" s="1">
         <v>190</v>
       </c>
@@ -17797,11 +18460,23 @@
       <c r="M82">
         <v>0.78420100000000004</v>
       </c>
-      <c r="N82" s="43">
+      <c r="N82" s="42">
         <v>0.67392300000000005</v>
       </c>
+      <c r="O82">
+        <v>0.77659</v>
+      </c>
+      <c r="P82">
+        <v>0.68522000000000005</v>
+      </c>
+      <c r="Q82">
+        <v>0.77385999999999999</v>
+      </c>
+      <c r="R82">
+        <v>0.68198999999999999</v>
+      </c>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:20">
       <c r="B83" s="1">
         <v>200</v>
       </c>
@@ -17838,11 +18513,23 @@
       <c r="M83">
         <v>0.78798900000000005</v>
       </c>
-      <c r="N83" s="43">
+      <c r="N83" s="42">
         <v>0.69991499999999995</v>
       </c>
+      <c r="O83">
+        <v>0.77788000000000002</v>
+      </c>
+      <c r="P83">
+        <v>0.67176999999999998</v>
+      </c>
+      <c r="Q83">
+        <v>0.77449000000000001</v>
+      </c>
+      <c r="R83">
+        <v>0.69399999999999995</v>
+      </c>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:20">
       <c r="B84" s="1">
         <v>210</v>
       </c>
@@ -17879,11 +18566,23 @@
       <c r="M84">
         <v>0.78855500000000001</v>
       </c>
-      <c r="N84" s="43">
+      <c r="N84" s="42">
         <v>0.67201</v>
       </c>
+      <c r="O84">
+        <v>0.77975000000000005</v>
+      </c>
+      <c r="P84">
+        <v>0.67513999999999996</v>
+      </c>
+      <c r="Q84">
+        <v>0.77202999999999999</v>
+      </c>
+      <c r="R84">
+        <v>0.67115999999999998</v>
+      </c>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:20">
       <c r="B85" s="1">
         <v>220</v>
       </c>
@@ -17899,7 +18598,7 @@
       <c r="F85" s="39">
         <v>0.68741399999999997</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85">
         <v>0.78500999999999999</v>
       </c>
       <c r="H85">
@@ -17920,11 +18619,23 @@
       <c r="M85">
         <v>0.78615500000000005</v>
       </c>
-      <c r="N85" s="43">
+      <c r="N85" s="42">
         <v>0.69368799999999997</v>
       </c>
+      <c r="O85">
+        <v>0.77419000000000004</v>
+      </c>
+      <c r="P85">
+        <v>0.68325000000000002</v>
+      </c>
+      <c r="Q85">
+        <v>0.77124999999999999</v>
+      </c>
+      <c r="R85">
+        <v>0.67971999999999999</v>
+      </c>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:20">
       <c r="B86" s="1">
         <v>230</v>
       </c>
@@ -17961,11 +18672,23 @@
       <c r="M86">
         <v>0.788601</v>
       </c>
-      <c r="N86" s="43">
+      <c r="N86" s="42">
         <v>0.69847400000000004</v>
       </c>
+      <c r="O86">
+        <v>0.77839000000000003</v>
+      </c>
+      <c r="P86">
+        <v>0.68479000000000001</v>
+      </c>
+      <c r="Q86">
+        <v>0.77614000000000005</v>
+      </c>
+      <c r="R86">
+        <v>0.68552000000000002</v>
+      </c>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:20">
       <c r="B87" s="1">
         <v>240</v>
       </c>
@@ -18002,11 +18725,23 @@
       <c r="M87">
         <v>0.78404399999999996</v>
       </c>
-      <c r="N87" s="43">
+      <c r="N87" s="42">
         <v>0.68041700000000005</v>
       </c>
+      <c r="O87">
+        <v>0.77608999999999995</v>
+      </c>
+      <c r="P87">
+        <v>0.67418</v>
+      </c>
+      <c r="Q87">
+        <v>0.77009000000000005</v>
+      </c>
+      <c r="R87">
+        <v>0.68315000000000003</v>
+      </c>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:20">
       <c r="B88" s="1">
         <v>250</v>
       </c>
@@ -18043,11 +18778,23 @@
       <c r="M88">
         <v>0.787022</v>
       </c>
-      <c r="N88" s="43">
+      <c r="N88" s="42">
         <v>0.69713000000000003</v>
       </c>
+      <c r="O88">
+        <v>0.77907000000000004</v>
+      </c>
+      <c r="P88">
+        <v>0.66935</v>
+      </c>
+      <c r="Q88">
+        <v>0.76036000000000004</v>
+      </c>
+      <c r="R88">
+        <v>0.68359000000000003</v>
+      </c>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:20">
       <c r="B89" s="1">
         <v>260</v>
       </c>
@@ -18084,11 +18831,23 @@
       <c r="M89">
         <v>0.78487499999999999</v>
       </c>
-      <c r="N89" s="43">
+      <c r="N89" s="42">
         <v>0.68649199999999999</v>
       </c>
+      <c r="O89">
+        <v>0.77368999999999999</v>
+      </c>
+      <c r="P89">
+        <v>0.68167</v>
+      </c>
+      <c r="Q89">
+        <v>0.76471999999999996</v>
+      </c>
+      <c r="R89">
+        <v>0.67617000000000005</v>
+      </c>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:20">
       <c r="B90" s="1">
         <v>270</v>
       </c>
@@ -18125,11 +18884,23 @@
       <c r="M90" s="36">
         <v>0.79212700000000003</v>
       </c>
-      <c r="N90" s="43">
+      <c r="N90" s="42">
         <v>0.69540599999999997</v>
       </c>
+      <c r="O90">
+        <v>0.77432999999999996</v>
+      </c>
+      <c r="P90">
+        <v>0.68181000000000003</v>
+      </c>
+      <c r="Q90">
+        <v>0.76124000000000003</v>
+      </c>
+      <c r="R90">
+        <v>0.66544000000000003</v>
+      </c>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:20">
       <c r="B91" s="1">
         <v>280</v>
       </c>
@@ -18169,8 +18940,20 @@
       <c r="N91">
         <v>0.68251399999999995</v>
       </c>
+      <c r="O91">
+        <v>0.77486999999999995</v>
+      </c>
+      <c r="P91">
+        <v>0.67727000000000004</v>
+      </c>
+      <c r="Q91">
+        <v>0.77020999999999995</v>
+      </c>
+      <c r="R91">
+        <v>0.68964999999999999</v>
+      </c>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:20">
       <c r="B92" s="1">
         <v>290</v>
       </c>
@@ -18198,20 +18981,32 @@
       <c r="J92" s="36">
         <v>0.69711999999999996</v>
       </c>
-      <c r="K92" s="42">
+      <c r="K92">
         <v>0.70623000000000002</v>
       </c>
       <c r="L92">
         <v>0.62878000000000001</v>
       </c>
-      <c r="M92" s="42">
+      <c r="M92">
         <v>0.78931200000000001</v>
       </c>
       <c r="N92">
         <v>0.68860100000000002</v>
       </c>
+      <c r="O92">
+        <v>0.77090999999999998</v>
+      </c>
+      <c r="P92" s="36">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="Q92">
+        <v>0.76593999999999995</v>
+      </c>
+      <c r="R92">
+        <v>0.68657999999999997</v>
+      </c>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:20">
       <c r="B93" s="1">
         <v>300</v>
       </c>
@@ -18251,8 +19046,20 @@
       <c r="N93">
         <v>0.66173599999999999</v>
       </c>
+      <c r="O93">
+        <v>0.76807999999999998</v>
+      </c>
+      <c r="P93">
+        <v>0.68101999999999996</v>
+      </c>
+      <c r="Q93">
+        <v>0.75573000000000001</v>
+      </c>
+      <c r="R93">
+        <v>0.68052000000000001</v>
+      </c>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:20">
       <c r="B94" s="1">
         <v>310</v>
       </c>
@@ -18292,8 +19099,20 @@
       <c r="N94">
         <v>0.66988599999999998</v>
       </c>
+      <c r="O94">
+        <v>0.77141000000000004</v>
+      </c>
+      <c r="P94">
+        <v>0.68838999999999995</v>
+      </c>
+      <c r="Q94">
+        <v>0.76210999999999995</v>
+      </c>
+      <c r="R94">
+        <v>0.67123999999999995</v>
+      </c>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:20">
       <c r="B95" s="1">
         <v>320</v>
       </c>
@@ -18333,8 +19152,21 @@
       <c r="N95">
         <v>0.67551099999999997</v>
       </c>
+      <c r="O95">
+        <v>0.76680999999999999</v>
+      </c>
+      <c r="P95">
+        <v>0.68352999999999997</v>
+      </c>
+      <c r="Q95">
+        <v>0.76002999999999998</v>
+      </c>
+      <c r="R95">
+        <v>0.68069999999999997</v>
+      </c>
+      <c r="T95" s="36"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:20">
       <c r="B96" s="1">
         <v>330</v>
       </c>
@@ -18374,8 +19206,20 @@
       <c r="N96">
         <v>0.684284</v>
       </c>
+      <c r="O96">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="P96">
+        <v>0.68881000000000003</v>
+      </c>
+      <c r="Q96">
+        <v>0.76132999999999995</v>
+      </c>
+      <c r="R96">
+        <v>0.67766999999999999</v>
+      </c>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:18">
       <c r="B97" s="1">
         <v>340</v>
       </c>
@@ -18415,8 +19259,20 @@
       <c r="N97">
         <v>0.67500899999999997</v>
       </c>
+      <c r="O97">
+        <v>0.76365000000000005</v>
+      </c>
+      <c r="P97">
+        <v>0.67664999999999997</v>
+      </c>
+      <c r="Q97">
+        <v>0.75361</v>
+      </c>
+      <c r="R97">
+        <v>0.66805000000000003</v>
+      </c>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:18">
       <c r="B98" s="1">
         <v>350</v>
       </c>
@@ -18456,8 +19312,20 @@
       <c r="N98" s="36">
         <v>0.70141500000000001</v>
       </c>
+      <c r="O98">
+        <v>0.76368000000000003</v>
+      </c>
+      <c r="P98">
+        <v>0.69074999999999998</v>
+      </c>
+      <c r="Q98">
+        <v>0.75551999999999997</v>
+      </c>
+      <c r="R98">
+        <v>0.67791000000000001</v>
+      </c>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:18">
       <c r="B99" s="1">
         <v>360</v>
       </c>
@@ -18497,8 +19365,20 @@
       <c r="N99">
         <v>0.661327</v>
       </c>
+      <c r="O99">
+        <v>0.76351000000000002</v>
+      </c>
+      <c r="P99">
+        <v>0.64427999999999996</v>
+      </c>
+      <c r="Q99">
+        <v>0.75448999999999999</v>
+      </c>
+      <c r="R99">
+        <v>0.67630999999999997</v>
+      </c>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:18">
       <c r="B100" s="1">
         <v>370</v>
       </c>
@@ -18538,8 +19418,20 @@
       <c r="N100">
         <v>0.68668300000000004</v>
       </c>
+      <c r="O100">
+        <v>0.77512000000000003</v>
+      </c>
+      <c r="P100">
+        <v>0.69333999999999996</v>
+      </c>
+      <c r="Q100">
+        <v>0.75371999999999995</v>
+      </c>
+      <c r="R100">
+        <v>0.67144000000000004</v>
+      </c>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:18">
       <c r="B101" s="1">
         <v>380</v>
       </c>
@@ -18579,8 +19471,20 @@
       <c r="N101">
         <v>0.69123400000000002</v>
       </c>
+      <c r="O101">
+        <v>0.76422000000000001</v>
+      </c>
+      <c r="P101">
+        <v>0.65841000000000005</v>
+      </c>
+      <c r="Q101">
+        <v>0.76121000000000005</v>
+      </c>
+      <c r="R101">
+        <v>0.68515999999999999</v>
+      </c>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:18">
       <c r="B102" s="1">
         <v>390</v>
       </c>
@@ -18620,8 +19524,20 @@
       <c r="N102">
         <v>0.68216900000000003</v>
       </c>
+      <c r="O102">
+        <v>0.76295999999999997</v>
+      </c>
+      <c r="P102">
+        <v>0.68349000000000004</v>
+      </c>
+      <c r="Q102">
+        <v>0.74648999999999999</v>
+      </c>
+      <c r="R102">
+        <v>0.64300999999999997</v>
+      </c>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:18">
       <c r="B103" s="1">
         <v>400</v>
       </c>
@@ -18660,6 +19576,18 @@
       </c>
       <c r="N103">
         <v>0.67971700000000002</v>
+      </c>
+      <c r="O103">
+        <v>0.76551999999999998</v>
+      </c>
+      <c r="P103">
+        <v>0.67876000000000003</v>
+      </c>
+      <c r="Q103">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="R103">
+        <v>0.68679000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/results-vitto2.xlsx
+++ b/results/results-vitto2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Vittorio\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431C9B35-D3E6-428E-A3D6-4ACB655E031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D7D24C-9D29-42D6-BDFA-DE858FF45462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>epochs</t>
   </si>
@@ -280,6 +280,42 @@
   </si>
   <si>
     <t>28_2 = 22</t>
+  </si>
+  <si>
+    <t>f-auc(24_5)</t>
+  </si>
+  <si>
+    <t>f1-mean(24_5)</t>
+  </si>
+  <si>
+    <t>no long/no short</t>
+  </si>
+  <si>
+    <t>f1-mean(22_4)</t>
+  </si>
+  <si>
+    <t>f-auc(22_4)</t>
+  </si>
+  <si>
+    <t>si long/no short</t>
+  </si>
+  <si>
+    <t>no long/si short</t>
+  </si>
+  <si>
+    <t>f-auc(24_4)</t>
+  </si>
+  <si>
+    <t>f1-mean(24_4)</t>
+  </si>
+  <si>
+    <t>si long/si short</t>
+  </si>
+  <si>
+    <t>f-auc(22)</t>
+  </si>
+  <si>
+    <t>f1-mean(22)</t>
   </si>
 </sst>
 </file>
@@ -8998,6 +9034,9 @@
               <c:f>Foglio1!$S$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(24_5)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -9031,6 +9070,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.49897999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50453999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51622999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50858999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50971999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48919000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50639000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50136999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51414000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50705999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49698999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50700999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51105999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49608000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50793999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50146000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50482000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51463000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51493999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52209000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51573000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50617000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52261000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52473999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51981999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51551999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52007000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52000999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51685999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52105999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53349000000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9049,6 +9208,9 @@
               <c:f>Foglio1!$U$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f-auc(22_4)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -9088,6 +9250,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.57553799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58923300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59186799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60190200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62117900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63386600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63659900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65057299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65312800000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65820299999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66377600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67220299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66931099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66674999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67340299999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67188899999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67155100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67343200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67683800000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67208800000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67558200000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.673597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67824899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67684100000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.679975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68762500000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68062400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66836099999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68155500000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67231300000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55532700000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.608016</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64290800000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65586</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66328600000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66975899999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10811,6 +11093,9 @@
               <c:f>Foglio1!$T$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(24_5)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -10844,6 +11129,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3099999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.887E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1640000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6630000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.039E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.67E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1128</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10862,6 +11267,9 @@
               <c:f>Foglio1!$V$63</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1-mean(22_4)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -10901,6 +11309,126 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>9.5408000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47631400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54070799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.548099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56627499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57476099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59077900000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58537799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59715399999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.523841</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57382999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60512200000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57759199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58634699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]General">
+                  <c:v>0.60392400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60744900000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60586499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58388300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59488099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55298199999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.588897</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58652499999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58513400000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59833099999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60346699999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.580843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58673500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60919500000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.61788600000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61035300000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60147700000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60792900000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59629399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50645300000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53644000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57592299999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56993099999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58094100000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60203200000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11370,6 +11898,2606 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>f-AUC long/short</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> term memory modules</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40085925286289648"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epochs</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D49A-439B-9CA5-22C17CAA4E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$S$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no long/no short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$S$64:$S$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.49897999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50453999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51622999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50858999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50971999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48919000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50639000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50136999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51414000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50705999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49698999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50700999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51105999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49608000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50793999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51678999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.50146000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50482000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51463000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51493999999999995</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51356000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52209000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51573000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.50617000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51844000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52261000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52473999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51981999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51551999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52007000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.52000999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51685999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.52105999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53349000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D49A-439B-9CA5-22C17CAA4E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$U$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>si long/no short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$U$64:$U$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.57553799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58923300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59186799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60190200000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62117900000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63386600000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63659900000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65057299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65312800000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65820299999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66377600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67220299999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66931099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66674999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67340299999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67188899999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67155100000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67343200000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67683800000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67208800000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67558200000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.673597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.67266999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.67824899999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.67684100000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.679975</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.68762500000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68062400000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66836099999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68155500000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67231300000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55532700000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.608016</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64290800000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65586</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66328600000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66975899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D49A-439B-9CA5-22C17CAA4E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$W$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no long/si short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$W$64:$W$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.50236000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48459000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51731000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50163999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50968999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54351000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58279000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66203000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68472999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66984999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6986</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70154000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.70686000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71314999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.71304000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72031000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.71338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72277000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72257000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72965000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71477000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73406000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72785999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73433000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72626999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73636000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73494000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73556999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72951999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72719</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74458999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.73582000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.73894000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D49A-439B-9CA5-22C17CAA4E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$Y$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>si long/si short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$Y$64:$Y$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.64140600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70616699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72548299999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73377400000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74489499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75541700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76143700000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76880899999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76782700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76828099999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.774482</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.77559900000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78268599999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77508500000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.780555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78366000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.78349800000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77864800000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78420100000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78798900000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.78855500000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.78615500000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.788601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78404399999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.787022</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78487499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79212700000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.78825400000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78931200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78534199999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78190300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.78876900000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78743700000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.78480399999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78447199999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77913100000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77842299999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78345500000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.77589699999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.77005400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D49A-439B-9CA5-22C17CAA4E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213703679"/>
+        <c:axId val="213700767"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213703679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213700767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213700767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.48000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213703679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>F1-mean long/short term memory modules</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40085925286289648"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$B$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epochs</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$64:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C12F-4D74-8804-591AE23EC323}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$S$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no long/no short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$T$64:$T$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.3099999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2899999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.887E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1640000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6630000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.039E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.67E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.1128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A84-4CCB-A392-8627C65FCEB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$U$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>si long/no short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$V$64:$V$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>9.5408000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47631400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54070799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.548099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56627499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57476099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59077900000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58537799999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59715399999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.523841</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57382999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60512200000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57759199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58634699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="[$-409]General">
+                  <c:v>0.60392400000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60744900000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.60586499999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58388300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59488099999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55298199999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.588897</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.58652499999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58513400000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59833099999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60346699999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.580843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58673500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.60919500000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.61788600000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61035300000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60147700000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.60792900000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.59629399999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50645300000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53644000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.57592299999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56993099999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.58094100000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.60203200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A84-4CCB-A392-8627C65FCEB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$W$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no long/si short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$X$64:$X$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52014000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58794000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48687000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50951999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61856999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.62577000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.62572000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58862999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62577000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.62956999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63302000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60909000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.64073000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61572000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62263999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.64424000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.61748999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.62402000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64648000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.62155000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64809000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63739000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63724999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65405999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.63075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64226000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A84-4CCB-A392-8627C65FCEB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$Y$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>si long/si short</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$Z$64:$Z$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.56779800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59803499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63741999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65724300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65948099999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64862900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66962200000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67858600000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67923800000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67184999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65294399999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67962999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64738899999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69127700000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66971800000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68577699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67392300000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69991499999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67201</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69368799999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69847400000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68041700000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69713000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.68649199999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69540599999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68251399999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68860100000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66173599999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66988599999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67551099999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.684284</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67500899999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.70141500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.661327</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.68668300000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.69123400000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68216900000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67971700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6A84-4CCB-A392-8627C65FCEB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="213703679"/>
+        <c:axId val="213700767"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="213703679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213700767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213700767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.71000000000000008"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213703679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11723,6 +14851,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -14781,6 +17989,1012 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15538,6 +19752,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1108362</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>26719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB4D9A29-3E65-4235-93C0-8866B0C53DFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>156235</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>26719</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868EC366-AB0F-4099-A02C-8E958C3306D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15811,8 +20101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V70" sqref="V70"/>
+    <sheetView tabSelected="1" topLeftCell="I58" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD84" sqref="AD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15834,15 +20124,14 @@
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -17400,6 +21689,18 @@
       <c r="N62" t="s">
         <v>79</v>
       </c>
+      <c r="S62" t="s">
+        <v>82</v>
+      </c>
+      <c r="U62" t="s">
+        <v>85</v>
+      </c>
+      <c r="W62" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="63" spans="2:27">
       <c r="B63" s="1" t="s">
@@ -17453,6 +21754,30 @@
       <c r="R63" t="s">
         <v>78</v>
       </c>
+      <c r="S63" t="s">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s">
+        <v>84</v>
+      </c>
+      <c r="V63" t="s">
+        <v>83</v>
+      </c>
+      <c r="W63" t="s">
+        <v>87</v>
+      </c>
+      <c r="X63" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="64" spans="2:27">
       <c r="B64" s="1">
@@ -17505,6 +21830,30 @@
       </c>
       <c r="R64">
         <v>0.55098000000000003</v>
+      </c>
+      <c r="S64">
+        <v>0.49897999999999998</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0.57553799999999999</v>
+      </c>
+      <c r="V64">
+        <v>9.5408000000000007E-2</v>
+      </c>
+      <c r="W64">
+        <v>0.50236000000000003</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0.64140600000000003</v>
+      </c>
+      <c r="Z64" s="42">
+        <v>0.56779800000000002</v>
       </c>
       <c r="AA64" s="1"/>
     </row>
@@ -17560,6 +21909,30 @@
       <c r="R65">
         <v>0.65437000000000001</v>
       </c>
+      <c r="S65">
+        <v>0.49340000000000001</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0.58923300000000001</v>
+      </c>
+      <c r="V65">
+        <v>0.47631400000000002</v>
+      </c>
+      <c r="W65">
+        <v>0.53761999999999999</v>
+      </c>
+      <c r="X65">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="Y65">
+        <v>0.70616699999999999</v>
+      </c>
+      <c r="Z65" s="42">
+        <v>0.59803499999999998</v>
+      </c>
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="2:27">
@@ -17614,6 +21987,30 @@
       <c r="R66">
         <v>0.66244999999999998</v>
       </c>
+      <c r="S66">
+        <v>0.50453999999999999</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0.59186799999999995</v>
+      </c>
+      <c r="V66">
+        <v>0.54070799999999997</v>
+      </c>
+      <c r="W66">
+        <v>0.48459000000000002</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0.72548299999999999</v>
+      </c>
+      <c r="Z66" s="42">
+        <v>0.63741999999999999</v>
+      </c>
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="2:27">
@@ -17668,6 +22065,30 @@
       <c r="R67">
         <v>0.66451000000000005</v>
       </c>
+      <c r="S67">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0.60190200000000005</v>
+      </c>
+      <c r="V67">
+        <v>0.548099</v>
+      </c>
+      <c r="W67">
+        <v>0.51731000000000005</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <v>0.73377400000000004</v>
+      </c>
+      <c r="Z67" s="42">
+        <v>0.65724300000000002</v>
+      </c>
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="2:27">
@@ -17722,6 +22143,30 @@
       <c r="R68">
         <v>0.67273000000000005</v>
       </c>
+      <c r="S68">
+        <v>0.51622999999999997</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0.62117900000000004</v>
+      </c>
+      <c r="V68">
+        <v>0.56627499999999997</v>
+      </c>
+      <c r="W68">
+        <v>0.50163999999999997</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0.74489499999999997</v>
+      </c>
+      <c r="Z68" s="42">
+        <v>0.65948099999999998</v>
+      </c>
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="2:27">
@@ -17776,6 +22221,30 @@
       <c r="R69">
         <v>0.65471999999999997</v>
       </c>
+      <c r="S69">
+        <v>0.50858999999999999</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0.63386600000000004</v>
+      </c>
+      <c r="V69">
+        <v>0.57289999999999996</v>
+      </c>
+      <c r="W69">
+        <v>0.50968999999999998</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>0.75541700000000001</v>
+      </c>
+      <c r="Z69" s="42">
+        <v>0.64862900000000001</v>
+      </c>
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="2:27">
@@ -17830,6 +22299,30 @@
       <c r="R70">
         <v>0.66071999999999997</v>
       </c>
+      <c r="S70">
+        <v>0.50971999999999995</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0.63659900000000003</v>
+      </c>
+      <c r="V70">
+        <v>0.57476099999999997</v>
+      </c>
+      <c r="W70">
+        <v>0.51549</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0.76143700000000003</v>
+      </c>
+      <c r="Z70" s="42">
+        <v>0.66962200000000005</v>
+      </c>
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="2:27">
@@ -17884,6 +22377,30 @@
       <c r="R71">
         <v>0.67293000000000003</v>
       </c>
+      <c r="S71">
+        <v>0.50266999999999995</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0.65057299999999996</v>
+      </c>
+      <c r="V71">
+        <v>0.59077900000000005</v>
+      </c>
+      <c r="W71">
+        <v>0.54351000000000005</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0.76880899999999996</v>
+      </c>
+      <c r="Z71" s="43">
+        <v>0.67858600000000002</v>
+      </c>
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="2:27">
@@ -17938,6 +22455,30 @@
       <c r="R72">
         <v>0.67432000000000003</v>
       </c>
+      <c r="S72">
+        <v>0.48919000000000001</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0.65312800000000004</v>
+      </c>
+      <c r="V72">
+        <v>0.58537799999999995</v>
+      </c>
+      <c r="W72">
+        <v>0.58279000000000003</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <v>0.76782700000000004</v>
+      </c>
+      <c r="Z72" s="42">
+        <v>0.67923800000000001</v>
+      </c>
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="2:27">
@@ -17992,6 +22533,30 @@
       <c r="R73" s="44">
         <v>0.68703999999999998</v>
       </c>
+      <c r="S73">
+        <v>0.49734</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0.65820299999999998</v>
+      </c>
+      <c r="V73">
+        <v>0.59715399999999996</v>
+      </c>
+      <c r="W73">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <v>0.76828099999999999</v>
+      </c>
+      <c r="Z73" s="42">
+        <v>0.67369999999999997</v>
+      </c>
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="2:27">
@@ -18046,6 +22611,30 @@
       <c r="R74">
         <v>0.66164999999999996</v>
       </c>
+      <c r="S74">
+        <v>0.505</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0.66377600000000003</v>
+      </c>
+      <c r="V74">
+        <v>0.523841</v>
+      </c>
+      <c r="W74">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="X74">
+        <v>0.52014000000000005</v>
+      </c>
+      <c r="Y74">
+        <v>0.774482</v>
+      </c>
+      <c r="Z74" s="42">
+        <v>0.67184999999999995</v>
+      </c>
       <c r="AA74" s="1"/>
     </row>
     <row r="75" spans="2:27">
@@ -18100,6 +22689,30 @@
       <c r="R75">
         <v>0.66630999999999996</v>
       </c>
+      <c r="S75">
+        <v>0.50639000000000001</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="V75">
+        <v>0.57382999999999995</v>
+      </c>
+      <c r="W75">
+        <v>0.66203000000000001</v>
+      </c>
+      <c r="X75">
+        <v>0.58794000000000002</v>
+      </c>
+      <c r="Y75">
+        <v>0.77559900000000004</v>
+      </c>
+      <c r="Z75" s="42">
+        <v>0.65294399999999997</v>
+      </c>
       <c r="AA75" s="1"/>
     </row>
     <row r="76" spans="2:27">
@@ -18154,6 +22767,30 @@
       <c r="R76" s="36">
         <v>0.69123000000000001</v>
       </c>
+      <c r="S76">
+        <v>0.50136999999999998</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0.67220299999999999</v>
+      </c>
+      <c r="V76">
+        <v>0.60512200000000005</v>
+      </c>
+      <c r="W76">
+        <v>0.68472999999999995</v>
+      </c>
+      <c r="X76">
+        <v>0.48687000000000002</v>
+      </c>
+      <c r="Y76">
+        <v>0.78268599999999999</v>
+      </c>
+      <c r="Z76" s="42">
+        <v>0.66893999999999998</v>
+      </c>
       <c r="AA76" s="1"/>
     </row>
     <row r="77" spans="2:27">
@@ -18208,6 +22845,30 @@
       <c r="R77">
         <v>0.66322000000000003</v>
       </c>
+      <c r="S77">
+        <v>0.51414000000000004</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0.66931099999999999</v>
+      </c>
+      <c r="V77">
+        <v>0.57759199999999999</v>
+      </c>
+      <c r="W77">
+        <v>0.66984999999999995</v>
+      </c>
+      <c r="X77">
+        <v>0.50951999999999997</v>
+      </c>
+      <c r="Y77">
+        <v>0.77508500000000002</v>
+      </c>
+      <c r="Z77" s="42">
+        <v>0.67962999999999996</v>
+      </c>
       <c r="AA77" s="1"/>
     </row>
     <row r="78" spans="2:27">
@@ -18262,6 +22923,30 @@
       <c r="R78">
         <v>0.69030999999999998</v>
       </c>
+      <c r="S78">
+        <v>0.50705999999999996</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0.66674999999999995</v>
+      </c>
+      <c r="V78">
+        <v>0.58634699999999995</v>
+      </c>
+      <c r="W78">
+        <v>0.6986</v>
+      </c>
+      <c r="X78">
+        <v>0.58379999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>0.780555</v>
+      </c>
+      <c r="Z78" s="42">
+        <v>0.64738899999999999</v>
+      </c>
       <c r="AA78" s="1"/>
     </row>
     <row r="79" spans="2:27">
@@ -18316,6 +23001,30 @@
       <c r="R79">
         <v>0.67573000000000005</v>
       </c>
+      <c r="S79">
+        <v>0.49698999999999999</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0.67340299999999997</v>
+      </c>
+      <c r="V79" s="43">
+        <v>0.60392400000000002</v>
+      </c>
+      <c r="W79">
+        <v>0.70154000000000005</v>
+      </c>
+      <c r="X79">
+        <v>0.61856999999999995</v>
+      </c>
+      <c r="Y79">
+        <v>0.78366000000000002</v>
+      </c>
+      <c r="Z79" s="42">
+        <v>0.69127700000000003</v>
+      </c>
     </row>
     <row r="80" spans="2:27">
       <c r="B80" s="1">
@@ -18369,8 +23078,32 @@
       <c r="R80">
         <v>0.67354999999999998</v>
       </c>
+      <c r="S80">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="T80">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="U80">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="V80">
+        <v>0.60744900000000002</v>
+      </c>
+      <c r="W80">
+        <v>0.70686000000000004</v>
+      </c>
+      <c r="X80">
+        <v>0.59297</v>
+      </c>
+      <c r="Y80">
+        <v>0.78349800000000003</v>
+      </c>
+      <c r="Z80" s="42">
+        <v>0.66971800000000004</v>
+      </c>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:26">
       <c r="B81" s="1">
         <v>180</v>
       </c>
@@ -18422,8 +23155,32 @@
       <c r="R81">
         <v>0.67513000000000001</v>
       </c>
+      <c r="S81">
+        <v>0.50700999999999996</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0.67188899999999996</v>
+      </c>
+      <c r="V81">
+        <v>0.60586499999999999</v>
+      </c>
+      <c r="W81">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="X81">
+        <v>0.62577000000000005</v>
+      </c>
+      <c r="Y81">
+        <v>0.77864800000000001</v>
+      </c>
+      <c r="Z81" s="42">
+        <v>0.68577699999999997</v>
+      </c>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="2:26">
       <c r="B82" s="1">
         <v>190</v>
       </c>
@@ -18475,8 +23232,32 @@
       <c r="R82">
         <v>0.68198999999999999</v>
       </c>
+      <c r="S82">
+        <v>0.51105999999999996</v>
+      </c>
+      <c r="T82">
+        <v>6.3099999999999996E-3</v>
+      </c>
+      <c r="U82">
+        <v>0.67155100000000001</v>
+      </c>
+      <c r="V82">
+        <v>0.58388300000000004</v>
+      </c>
+      <c r="W82">
+        <v>0.71314999999999995</v>
+      </c>
+      <c r="X82">
+        <v>0.62572000000000005</v>
+      </c>
+      <c r="Y82">
+        <v>0.78420100000000004</v>
+      </c>
+      <c r="Z82" s="42">
+        <v>0.67392300000000005</v>
+      </c>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="2:26">
       <c r="B83" s="1">
         <v>200</v>
       </c>
@@ -18528,8 +23309,32 @@
       <c r="R83">
         <v>0.69399999999999995</v>
       </c>
+      <c r="S83">
+        <v>0.49608000000000002</v>
+      </c>
+      <c r="T83">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="U83">
+        <v>0.67343200000000003</v>
+      </c>
+      <c r="V83">
+        <v>0.59488099999999999</v>
+      </c>
+      <c r="W83">
+        <v>0.71304000000000001</v>
+      </c>
+      <c r="X83">
+        <v>0.58862999999999999</v>
+      </c>
+      <c r="Y83">
+        <v>0.78798900000000005</v>
+      </c>
+      <c r="Z83" s="42">
+        <v>0.69991499999999995</v>
+      </c>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:26">
       <c r="B84" s="1">
         <v>210</v>
       </c>
@@ -18581,8 +23386,32 @@
       <c r="R84">
         <v>0.67115999999999998</v>
       </c>
+      <c r="S84">
+        <v>0.50793999999999995</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0.67683800000000005</v>
+      </c>
+      <c r="V84">
+        <v>0.55298199999999997</v>
+      </c>
+      <c r="W84">
+        <v>0.72179000000000004</v>
+      </c>
+      <c r="X84">
+        <v>0.62577000000000005</v>
+      </c>
+      <c r="Y84">
+        <v>0.78855500000000001</v>
+      </c>
+      <c r="Z84" s="42">
+        <v>0.67201</v>
+      </c>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:26">
       <c r="B85" s="1">
         <v>220</v>
       </c>
@@ -18634,8 +23463,32 @@
       <c r="R85">
         <v>0.67971999999999999</v>
       </c>
+      <c r="S85">
+        <v>0.51678999999999997</v>
+      </c>
+      <c r="T85">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="U85">
+        <v>0.67208800000000002</v>
+      </c>
+      <c r="V85">
+        <v>0.588897</v>
+      </c>
+      <c r="W85">
+        <v>0.72031000000000001</v>
+      </c>
+      <c r="X85">
+        <v>0.62956999999999996</v>
+      </c>
+      <c r="Y85">
+        <v>0.78615500000000005</v>
+      </c>
+      <c r="Z85" s="42">
+        <v>0.69368799999999997</v>
+      </c>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="2:26">
       <c r="B86" s="1">
         <v>230</v>
       </c>
@@ -18687,8 +23540,32 @@
       <c r="R86">
         <v>0.68552000000000002</v>
       </c>
+      <c r="S86">
+        <v>0.50146000000000002</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0.67558200000000002</v>
+      </c>
+      <c r="V86">
+        <v>0.58652499999999996</v>
+      </c>
+      <c r="W86">
+        <v>0.71338000000000001</v>
+      </c>
+      <c r="X86">
+        <v>0.63075000000000003</v>
+      </c>
+      <c r="Y86">
+        <v>0.788601</v>
+      </c>
+      <c r="Z86" s="42">
+        <v>0.69847400000000004</v>
+      </c>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="2:26">
       <c r="B87" s="1">
         <v>240</v>
       </c>
@@ -18740,8 +23617,32 @@
       <c r="R87">
         <v>0.68315000000000003</v>
       </c>
+      <c r="S87">
+        <v>0.50482000000000005</v>
+      </c>
+      <c r="T87">
+        <v>1.5E-3</v>
+      </c>
+      <c r="U87">
+        <v>0.673597</v>
+      </c>
+      <c r="V87">
+        <v>0.58513400000000004</v>
+      </c>
+      <c r="W87">
+        <v>0.72277000000000002</v>
+      </c>
+      <c r="X87">
+        <v>0.63302000000000003</v>
+      </c>
+      <c r="Y87">
+        <v>0.78404399999999996</v>
+      </c>
+      <c r="Z87" s="42">
+        <v>0.68041700000000005</v>
+      </c>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="2:26">
       <c r="B88" s="1">
         <v>250</v>
       </c>
@@ -18793,8 +23694,32 @@
       <c r="R88">
         <v>0.68359000000000003</v>
       </c>
+      <c r="S88">
+        <v>0.51463000000000003</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0.67266999999999999</v>
+      </c>
+      <c r="V88">
+        <v>0.59833099999999995</v>
+      </c>
+      <c r="W88">
+        <v>0.72257000000000005</v>
+      </c>
+      <c r="X88">
+        <v>0.60909000000000002</v>
+      </c>
+      <c r="Y88">
+        <v>0.787022</v>
+      </c>
+      <c r="Z88" s="42">
+        <v>0.69713000000000003</v>
+      </c>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="2:26">
       <c r="B89" s="1">
         <v>260</v>
       </c>
@@ -18846,8 +23771,32 @@
       <c r="R89">
         <v>0.67617000000000005</v>
       </c>
+      <c r="S89">
+        <v>0.51493999999999995</v>
+      </c>
+      <c r="T89">
+        <v>1.2899999999999999E-3</v>
+      </c>
+      <c r="U89">
+        <v>0.67824899999999999</v>
+      </c>
+      <c r="V89">
+        <v>0.60346699999999998</v>
+      </c>
+      <c r="W89">
+        <v>0.72965000000000002</v>
+      </c>
+      <c r="X89">
+        <v>0.64073000000000002</v>
+      </c>
+      <c r="Y89">
+        <v>0.78487499999999999</v>
+      </c>
+      <c r="Z89" s="42">
+        <v>0.68649199999999999</v>
+      </c>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="2:26">
       <c r="B90" s="1">
         <v>270</v>
       </c>
@@ -18899,8 +23848,32 @@
       <c r="R90">
         <v>0.66544000000000003</v>
       </c>
+      <c r="S90">
+        <v>0.51356000000000002</v>
+      </c>
+      <c r="T90">
+        <v>2.887E-2</v>
+      </c>
+      <c r="U90">
+        <v>0.67684100000000003</v>
+      </c>
+      <c r="V90">
+        <v>0.580843</v>
+      </c>
+      <c r="W90">
+        <v>0.72560000000000002</v>
+      </c>
+      <c r="X90">
+        <v>0.61572000000000005</v>
+      </c>
+      <c r="Y90">
+        <v>0.79212700000000003</v>
+      </c>
+      <c r="Z90" s="42">
+        <v>0.69540599999999997</v>
+      </c>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="2:26">
       <c r="B91" s="1">
         <v>280</v>
       </c>
@@ -18952,8 +23925,32 @@
       <c r="R91">
         <v>0.68964999999999999</v>
       </c>
+      <c r="S91">
+        <v>0.52209000000000005</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="V91">
+        <v>0.58673500000000001</v>
+      </c>
+      <c r="W91">
+        <v>0.71477000000000002</v>
+      </c>
+      <c r="X91">
+        <v>0.62263999999999997</v>
+      </c>
+      <c r="Y91">
+        <v>0.78825400000000001</v>
+      </c>
+      <c r="Z91">
+        <v>0.68251399999999995</v>
+      </c>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="2:26">
       <c r="B92" s="1">
         <v>290</v>
       </c>
@@ -19005,8 +24002,32 @@
       <c r="R92">
         <v>0.68657999999999997</v>
       </c>
+      <c r="S92">
+        <v>0.51573000000000002</v>
+      </c>
+      <c r="T92">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="U92">
+        <v>0.679975</v>
+      </c>
+      <c r="V92">
+        <v>0.60919500000000004</v>
+      </c>
+      <c r="W92">
+        <v>0.73406000000000005</v>
+      </c>
+      <c r="X92">
+        <v>0.64424000000000003</v>
+      </c>
+      <c r="Y92">
+        <v>0.78931200000000001</v>
+      </c>
+      <c r="Z92">
+        <v>0.68860100000000002</v>
+      </c>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="2:26">
       <c r="B93" s="1">
         <v>300</v>
       </c>
@@ -19058,8 +24079,32 @@
       <c r="R93">
         <v>0.68052000000000001</v>
       </c>
+      <c r="S93">
+        <v>0.50617000000000001</v>
+      </c>
+      <c r="T93">
+        <v>1.5E-3</v>
+      </c>
+      <c r="U93">
+        <v>0.68762500000000004</v>
+      </c>
+      <c r="V93">
+        <v>0.61788600000000005</v>
+      </c>
+      <c r="W93">
+        <v>0.72785999999999995</v>
+      </c>
+      <c r="X93">
+        <v>0.61748999999999998</v>
+      </c>
+      <c r="Y93">
+        <v>0.78534199999999998</v>
+      </c>
+      <c r="Z93">
+        <v>0.66173599999999999</v>
+      </c>
     </row>
-    <row r="94" spans="2:20">
+    <row r="94" spans="2:26">
       <c r="B94" s="1">
         <v>310</v>
       </c>
@@ -19111,8 +24156,32 @@
       <c r="R94">
         <v>0.67123999999999995</v>
       </c>
+      <c r="S94">
+        <v>0.51844000000000001</v>
+      </c>
+      <c r="T94">
+        <v>3.1640000000000001E-2</v>
+      </c>
+      <c r="U94">
+        <v>0.68062400000000001</v>
+      </c>
+      <c r="V94">
+        <v>0.61035300000000003</v>
+      </c>
+      <c r="W94">
+        <v>0.73433000000000004</v>
+      </c>
+      <c r="X94">
+        <v>0.62402000000000002</v>
+      </c>
+      <c r="Y94">
+        <v>0.78190300000000001</v>
+      </c>
+      <c r="Z94">
+        <v>0.66988599999999998</v>
+      </c>
     </row>
-    <row r="95" spans="2:20">
+    <row r="95" spans="2:26">
       <c r="B95" s="1">
         <v>320</v>
       </c>
@@ -19164,9 +24233,32 @@
       <c r="R95">
         <v>0.68069999999999997</v>
       </c>
-      <c r="T95" s="36"/>
+      <c r="S95">
+        <v>0.52261000000000002</v>
+      </c>
+      <c r="T95" s="36">
+        <v>3.0890000000000001E-2</v>
+      </c>
+      <c r="U95">
+        <v>0.66836099999999998</v>
+      </c>
+      <c r="V95">
+        <v>0.60147700000000004</v>
+      </c>
+      <c r="W95">
+        <v>0.72626999999999997</v>
+      </c>
+      <c r="X95">
+        <v>0.63768999999999998</v>
+      </c>
+      <c r="Y95">
+        <v>0.78876900000000005</v>
+      </c>
+      <c r="Z95">
+        <v>0.67551099999999997</v>
+      </c>
     </row>
-    <row r="96" spans="2:20">
+    <row r="96" spans="2:26">
       <c r="B96" s="1">
         <v>330</v>
       </c>
@@ -19218,8 +24310,32 @@
       <c r="R96">
         <v>0.67766999999999999</v>
       </c>
+      <c r="S96">
+        <v>0.52473999999999998</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0.68155500000000002</v>
+      </c>
+      <c r="V96">
+        <v>0.60792900000000005</v>
+      </c>
+      <c r="W96">
+        <v>0.73636000000000001</v>
+      </c>
+      <c r="X96">
+        <v>0.64648000000000005</v>
+      </c>
+      <c r="Y96">
+        <v>0.78743700000000005</v>
+      </c>
+      <c r="Z96">
+        <v>0.684284</v>
+      </c>
     </row>
-    <row r="97" spans="2:18">
+    <row r="97" spans="2:26">
       <c r="B97" s="1">
         <v>340</v>
       </c>
@@ -19271,8 +24387,32 @@
       <c r="R97">
         <v>0.66805000000000003</v>
       </c>
+      <c r="S97">
+        <v>0.51981999999999995</v>
+      </c>
+      <c r="T97">
+        <v>7.6600000000000001E-3</v>
+      </c>
+      <c r="U97">
+        <v>0.67231300000000005</v>
+      </c>
+      <c r="V97">
+        <v>0.59629399999999999</v>
+      </c>
+      <c r="W97">
+        <v>0.73494000000000004</v>
+      </c>
+      <c r="X97">
+        <v>0.62155000000000005</v>
+      </c>
+      <c r="Y97">
+        <v>0.78480399999999995</v>
+      </c>
+      <c r="Z97">
+        <v>0.67500899999999997</v>
+      </c>
     </row>
-    <row r="98" spans="2:18">
+    <row r="98" spans="2:26">
       <c r="B98" s="1">
         <v>350</v>
       </c>
@@ -19324,8 +24464,32 @@
       <c r="R98">
         <v>0.67791000000000001</v>
       </c>
+      <c r="S98">
+        <v>0.51551999999999998</v>
+      </c>
+      <c r="T98">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="U98">
+        <v>0.55532700000000002</v>
+      </c>
+      <c r="V98">
+        <v>0.50645300000000004</v>
+      </c>
+      <c r="W98">
+        <v>0.73556999999999995</v>
+      </c>
+      <c r="X98">
+        <v>0.64809000000000005</v>
+      </c>
+      <c r="Y98">
+        <v>0.78447199999999995</v>
+      </c>
+      <c r="Z98">
+        <v>0.70141500000000001</v>
+      </c>
     </row>
-    <row r="99" spans="2:18">
+    <row r="99" spans="2:26">
       <c r="B99" s="1">
         <v>360</v>
       </c>
@@ -19377,8 +24541,32 @@
       <c r="R99">
         <v>0.67630999999999997</v>
       </c>
+      <c r="S99">
+        <v>0.52007000000000003</v>
+      </c>
+      <c r="T99">
+        <v>3.6630000000000003E-2</v>
+      </c>
+      <c r="U99">
+        <v>0.608016</v>
+      </c>
+      <c r="V99">
+        <v>0.53644000000000003</v>
+      </c>
+      <c r="W99">
+        <v>0.72951999999999995</v>
+      </c>
+      <c r="X99">
+        <v>0.63739000000000001</v>
+      </c>
+      <c r="Y99">
+        <v>0.77913100000000002</v>
+      </c>
+      <c r="Z99">
+        <v>0.661327</v>
+      </c>
     </row>
-    <row r="100" spans="2:18">
+    <row r="100" spans="2:26">
       <c r="B100" s="1">
         <v>370</v>
       </c>
@@ -19430,8 +24618,32 @@
       <c r="R100">
         <v>0.67144000000000004</v>
       </c>
+      <c r="S100">
+        <v>0.52000999999999997</v>
+      </c>
+      <c r="T100">
+        <v>1.039E-2</v>
+      </c>
+      <c r="U100">
+        <v>0.64290800000000004</v>
+      </c>
+      <c r="V100">
+        <v>0.57592299999999996</v>
+      </c>
+      <c r="W100">
+        <v>0.72719</v>
+      </c>
+      <c r="X100">
+        <v>0.63724999999999998</v>
+      </c>
+      <c r="Y100">
+        <v>0.77842299999999998</v>
+      </c>
+      <c r="Z100">
+        <v>0.68668300000000004</v>
+      </c>
     </row>
-    <row r="101" spans="2:18">
+    <row r="101" spans="2:26">
       <c r="B101" s="1">
         <v>380</v>
       </c>
@@ -19483,8 +24695,32 @@
       <c r="R101">
         <v>0.68515999999999999</v>
       </c>
+      <c r="S101">
+        <v>0.51685999999999999</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0.65586</v>
+      </c>
+      <c r="V101">
+        <v>0.56993099999999997</v>
+      </c>
+      <c r="W101">
+        <v>0.74458999999999997</v>
+      </c>
+      <c r="X101">
+        <v>0.65405999999999997</v>
+      </c>
+      <c r="Y101">
+        <v>0.78345500000000001</v>
+      </c>
+      <c r="Z101">
+        <v>0.69123400000000002</v>
+      </c>
     </row>
-    <row r="102" spans="2:18">
+    <row r="102" spans="2:26">
       <c r="B102" s="1">
         <v>390</v>
       </c>
@@ -19536,8 +24772,32 @@
       <c r="R102">
         <v>0.64300999999999997</v>
       </c>
+      <c r="S102">
+        <v>0.52105999999999997</v>
+      </c>
+      <c r="T102">
+        <v>1.67E-3</v>
+      </c>
+      <c r="U102">
+        <v>0.66328600000000004</v>
+      </c>
+      <c r="V102">
+        <v>0.58094100000000004</v>
+      </c>
+      <c r="W102">
+        <v>0.73582000000000003</v>
+      </c>
+      <c r="X102">
+        <v>0.63075000000000003</v>
+      </c>
+      <c r="Y102">
+        <v>0.77589699999999995</v>
+      </c>
+      <c r="Z102">
+        <v>0.68216900000000003</v>
+      </c>
     </row>
-    <row r="103" spans="2:18">
+    <row r="103" spans="2:26">
       <c r="B103" s="1">
         <v>400</v>
       </c>
@@ -19588,6 +24848,30 @@
       </c>
       <c r="R103">
         <v>0.68679000000000001</v>
+      </c>
+      <c r="S103">
+        <v>0.53349000000000002</v>
+      </c>
+      <c r="T103">
+        <v>0.1128</v>
+      </c>
+      <c r="U103">
+        <v>0.66975899999999999</v>
+      </c>
+      <c r="V103">
+        <v>0.60203200000000001</v>
+      </c>
+      <c r="W103">
+        <v>0.73894000000000004</v>
+      </c>
+      <c r="X103">
+        <v>0.64226000000000005</v>
+      </c>
+      <c r="Y103">
+        <v>0.77005400000000002</v>
+      </c>
+      <c r="Z103">
+        <v>0.67971700000000002</v>
       </c>
     </row>
   </sheetData>
